--- a/solow/solowmodel.xlsx
+++ b/solow/solowmodel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D13ADF-66AF-C44C-8849-15DB5FB2DF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B766FBFA-E2E1-044E-974D-ACCBBD2F7889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{766A9E66-545D-034F-944F-E69BE052E8C3}"/>
   </bookViews>

--- a/solow/solowmodel.xlsx
+++ b/solow/solowmodel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Library/CloudStorage/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6A74F9-497E-4C4E-9FAA-98B21B0341D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817AF4E-5FCB-7541-BDE3-FF47F8772EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="34500" windowHeight="22600" xr2:uid="{766A9E66-545D-034F-944F-E69BE052E8C3}"/>
   </bookViews>
@@ -291,304 +291,304 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.50316786440807926</c:v>
+                  <c:v>0.22873856958478198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52722948032534034</c:v>
+                  <c:v>0.27052001094400246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55157931738267185</c:v>
+                  <c:v>0.31132099352017689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57620663168174691</c:v>
+                  <c:v>0.35124348672805672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60110076531654277</c:v>
+                  <c:v>0.3903757449730263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62625117901733218</c:v>
+                  <c:v>0.4287946383236057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65164748165668374</c:v>
+                  <c:v>0.46656750601993757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67727945663197042</c:v>
+                  <c:v>0.5037536458516042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7031370851757629</c:v>
+                  <c:v>0.54040552231291061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72921056667722839</c:v>
+                  <c:v>0.57656975517509024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75549033612425021</c:v>
+                  <c:v>0.6122879348726149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78196707879762106</c:v>
+                  <c:v>0.64759730002666827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80863174236559876</c:v>
+                  <c:v>0.68253130428097986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83547554653964262</c:v>
+                  <c:v>0.71712009356025375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86248999046071972</c:v>
+                  <c:v>0.7513909102980616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88966685799054102</c:v>
+                  <c:v>0.78536843771299936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9169982210839126</c:v>
+                  <c:v>0.81907509455163563</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94447644141751552</c:v>
+                  <c:v>0.8525312886583255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97209417044725932</c:v>
+                  <c:v>0.88575563612620811</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99984434806128974</c:v>
+                  <c:v>0.91876515152149019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0277201999891676</c:v>
+                  <c:v>0.95157541367383869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0557152341199953</c:v>
+                  <c:v>0.98420071072923299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0838232358736641</c:v>
+                  <c:v>1.0166541675227505</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1120382627602039</c:v>
+                  <c:v>1.0489478578132234</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1403546382526815</c:v>
+                  <c:v>1.0810929035033201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1687669450893958</c:v>
+                  <c:v>1.1130995626272351</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1972700181114617</c:v>
+                  <c:v>1.1449773076082193</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2258589367323574</c:v>
+                  <c:v>1.1767348950574741</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.254529017126792</c:v>
+                  <c:v>1.2083804281949277</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2832758042173755</c:v>
+                  <c:v>1.2399214128135971</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3120950635291364</c:v>
+                  <c:v>1.2713648075766011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3409827729739758</c:v>
+                  <c:v>1.302717069324711</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3699351146196763</c:v>
+                  <c:v>1.3339841939787307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3989484664911658</c:v>
+                  <c:v>1.3651717535419732</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4280193944453152</c:v>
+                  <c:v>1.3962849296410604</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4571446441546791</c:v>
+                  <c:v>1.4273285439863248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4863211332302071</c:v>
+                  <c:v>1.4583070860844205</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5155459435080878</c:v>
+                  <c:v>1.4892247384941473</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5448163135214792</c:v>
+                  <c:v>1.5200853998807498</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5741296311739268</c:v>
+                  <c:v>1.5508927060931719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6034834266277485</c:v>
+                  <c:v>1.5816500494621872</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6328753654175108</c:v>
+                  <c:v>1.6123605964943142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6623032417959691</c:v>
+                  <c:v>1.6430273041164638</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6917649723173906</c:v>
+                  <c:v>1.6736529346088755</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7212585896610746</c:v>
+                  <c:v>1.7042400693487574</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7507822366960102</c:v>
+                  <c:v>1.7347911214737592</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7803341607860632</c:v>
+                  <c:v>1.765308347562824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8099127083336841</c:v>
+                  <c:v>1.795793858421715</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8395163195590212</c:v>
+                  <c:v>1.8262496290515604</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8691435235103273</c:v>
+                  <c:v>1.8566775078708067</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8987929333007785</c:v>
+                  <c:v>1.8870792252539721</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9284632415661538</c:v>
+                  <c:v>1.91745640144437</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9581532161373336</c:v>
+                  <c:v>1.9478105538924724</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9878616959211406</c:v>
+                  <c:v>1.9781431040666606</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0175875869827737</c:v>
+                  <c:v>2.0084553837787595</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0473298588228572</c:v>
+                  <c:v>2.0387486410628322</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.077087540841994</c:v>
+                  <c:v>2.0690240456422382</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1068597189856377</c:v>
+                  <c:v>2.0992826940168192</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1366455325620848</c:v>
+                  <c:v>2.1295256141992782</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1664441712264257</c:v>
+                  <c:v>2.159753770127292</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1962548721233541</c:v>
+                  <c:v>2.1899680657756306</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2260769171818504</c:v>
+                  <c:v>2.2201693489904928</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2559096305548896</c:v>
+                  <c:v>2.2503584150664429</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2857523761974745</c:v>
+                  <c:v>2.2805360100846284</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.3156045555764786</c:v>
+                  <c:v>2.3107028340294677</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3454656055059573</c:v>
+                  <c:v>2.3408595436996009</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3753349961018211</c:v>
+                  <c:v>2.3710067554276564</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.4052122288499191</c:v>
+                  <c:v>2.4011450476222387</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4350968347818518</c:v>
+                  <c:v>2.4312749631445247</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4649883727530026</c:v>
+                  <c:v>2.461397011530869</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4948864278175251</c:v>
+                  <c:v>2.4915116710720091</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.524790609695224</c:v>
+                  <c:v>2.5216193907586177</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5547005513254901</c:v>
+                  <c:v>2.5517205921022592</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.5846159075036561</c:v>
+                  <c:v>2.5818156708401254</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.614536353595363</c:v>
+                  <c:v>2.6119049985313327</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6444615843247008</c:v>
+                  <c:v>2.6419889240519749</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6743913126321326</c:v>
+                  <c:v>2.6720677749956496</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.7043252685983434</c:v>
+                  <c:v>2.7021418589856543</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.7342631984304075</c:v>
+                  <c:v>2.7322114649046578</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7642048635067935</c:v>
+                  <c:v>2.7622768640472204</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7941500394779331</c:v>
+                  <c:v>2.7923383112001621</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.8240985154192391</c:v>
+                  <c:v>2.8223960456554549</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8540500930336101</c:v>
+                  <c:v>2.8524502921599812</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.884004585900628</c:v>
+                  <c:v>2.8825012618062003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.913961818769788</c:v>
+                  <c:v>2.9125491528675131</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.9439216268952615</c:v>
+                  <c:v>2.9425941515818388</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.9738838554097962</c:v>
+                  <c:v>2.9726364328866954</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0038483587355262</c:v>
+                  <c:v>3.0026761611088646</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0338150000295436</c:v>
+                  <c:v>3.0327134906114872</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0637836506622476</c:v>
+                  <c:v>3.0627485664012961</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0937541897265501</c:v>
+                  <c:v>3.0927815246984749</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.1237265035761599</c:v>
+                  <c:v>3.1228124934714847</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1537004853912416</c:v>
+                  <c:v>3.1528415929390565</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.183676034769872</c:v>
+                  <c:v>3.1828689360414</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2136530573437554</c:v>
+                  <c:v>3.2128946288825335</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2436314644168043</c:v>
+                  <c:v>3.2429187711455412</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2736111726252308</c:v>
+                  <c:v>3.2729414564824371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.3035921036178868</c:v>
+                  <c:v>3.3029627728801993</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3335741837556578</c:v>
+                  <c:v>3.3329828030044641</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.3635573438287918</c:v>
+                  <c:v>3.3630016245222416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,304 +1298,304 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.4061615917260901E-2</c:v>
+                  <c:v>4.1781441359220337E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4349837057331486E-2</c:v>
+                  <c:v>4.080098257617417E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4627314299075033E-2</c:v>
+                  <c:v>3.9922493207879911E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4894133634795892E-2</c:v>
+                  <c:v>3.9132258244969582E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5150413700789135E-2</c:v>
+                  <c:v>3.8418893350579353E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5396302639351623E-2</c:v>
+                  <c:v>3.7772867696331897E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5631974975286596E-2</c:v>
+                  <c:v>3.7186139831666201E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5857628543792428E-2</c:v>
+                  <c:v>3.6651876461306493E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.607348150146549E-2</c:v>
+                  <c:v>3.6164232862179714E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.627976944702139E-2</c:v>
+                  <c:v>3.5718179697524374E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.647674267337102E-2</c:v>
+                  <c:v>3.5309365154053349E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6664663567977757E-2</c:v>
+                  <c:v>3.4934004254311375E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6843804174043501E-2</c:v>
+                  <c:v>3.4588789279273835E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7014443921077061E-2</c:v>
+                  <c:v>3.4270816737807838E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7176867529821361E-2</c:v>
+                  <c:v>3.39775274149378E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7331363093371308E-2</c:v>
+                  <c:v>3.3706656838636002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7478220333602841E-2</c:v>
+                  <c:v>3.3456194106689756E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7617729029743847E-2</c:v>
+                  <c:v>3.3224347467882685E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7750177614030296E-2</c:v>
+                  <c:v>3.3009515395281942E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7875851927877681E-2</c:v>
+                  <c:v>3.2810262152348293E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7995034130827687E-2</c:v>
+                  <c:v>3.2625297055394104E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.8108001753668663E-2</c:v>
+                  <c:v>3.2453456793517403E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8215026886539745E-2</c:v>
+                  <c:v>3.229369029047293E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8316375492477269E-2</c:v>
+                  <c:v>3.2145045690096553E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8412306836714259E-2</c:v>
+                  <c:v>3.2006659123914816E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8503073022065818E-2</c:v>
+                  <c:v>3.1877744980984356E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8588918620895694E-2</c:v>
+                  <c:v>3.1757587449254721E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8670080394434597E-2</c:v>
+                  <c:v>3.1645533137453587E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8746787090583099E-2</c:v>
+                  <c:v>3.1540984618669082E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8819259311760822E-2</c:v>
+                  <c:v>3.1443394763003889E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.8887709444839184E-2</c:v>
+                  <c:v>3.1352261748109407E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.89523416457005E-2</c:v>
+                  <c:v>3.1267124654020234E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9013351871489311E-2</c:v>
+                  <c:v>3.1187559563242137E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9070927954149353E-2</c:v>
+                  <c:v>3.1113176099087151E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9125249709363719E-2</c:v>
+                  <c:v>3.1043614345264377E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9176489075527914E-2</c:v>
+                  <c:v>3.0978542098095328E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9224810277880701E-2</c:v>
+                  <c:v>3.0917652409726784E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9270370013390955E-2</c:v>
+                  <c:v>3.0860661386602619E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9313317652447608E-2</c:v>
+                  <c:v>3.0807306212422222E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9353795453821573E-2</c:v>
+                  <c:v>3.0757343369015058E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9391938789762418E-2</c:v>
+                  <c:v>3.0710547032126976E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.9427876378457962E-2</c:v>
+                  <c:v>3.0666707622149278E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9461730521421928E-2</c:v>
+                  <c:v>3.0625630492412084E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9493617343683613E-2</c:v>
+                  <c:v>3.0587134739881422E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.952364703493578E-2</c:v>
+                  <c:v>3.0551052125001917E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.9551924090052542E-2</c:v>
+                  <c:v>3.0517226089064563E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.9578547547620834E-2</c:v>
+                  <c:v>3.0485510858890827E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9603611225336952E-2</c:v>
+                  <c:v>3.0455770629845256E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9627203951306288E-2</c:v>
+                  <c:v>3.0427878819246447E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9649409790450641E-2</c:v>
+                  <c:v>3.0401717383165161E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.9670308265375499E-2</c:v>
+                  <c:v>3.0377176190397929E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.9689974571179861E-2</c:v>
+                  <c:v>3.0354152448102131E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.9708479783806748E-2</c:v>
+                  <c:v>3.0332550174188174E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.9725891061632807E-2</c:v>
+                  <c:v>3.0312279712098652E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9742271840083559E-2</c:v>
+                  <c:v>3.0293257284072672E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.9757682019136922E-2</c:v>
+                  <c:v>3.0275404579406046E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.977217814364334E-2</c:v>
+                  <c:v>3.0258648374580879E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9785813576447037E-2</c:v>
+                  <c:v>3.0242920182458648E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.9798638664340932E-2</c:v>
+                  <c:v>3.0228155928014078E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9810700896928038E-2</c:v>
+                  <c:v>3.0214295648338274E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9822045058496022E-2</c:v>
+                  <c:v>3.0201283214862248E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9832713373039187E-2</c:v>
+                  <c:v>3.0189066075949844E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.9842745642585426E-2</c:v>
+                  <c:v>3.0177595018185521E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.9852179379003307E-2</c:v>
+                  <c:v>3.0166823944839508E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9861049929478977E-2</c:v>
+                  <c:v>3.0156709670133387E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.9869390595863392E-2</c:v>
+                  <c:v>3.0147211728054797E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.9877232748098049E-2</c:v>
+                  <c:v>3.013829219458268E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.9884605931932574E-2</c:v>
+                  <c:v>3.0129915522285246E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.9891537971150777E-2</c:v>
+                  <c:v>3.0122048386344226E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9898055064522571E-2</c:v>
+                  <c:v>3.0114659541140336E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9904181877698995E-2</c:v>
+                  <c:v>3.0107719686608879E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9909941630265554E-2</c:v>
+                  <c:v>3.0101201343640995E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9915356178166128E-2</c:v>
+                  <c:v>3.0095078737866217E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9920446091706101E-2</c:v>
+                  <c:v>3.0089327691206712E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.9925230729338462E-2</c:v>
+                  <c:v>3.0083925520642811E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.9929728307431451E-2</c:v>
+                  <c:v>3.0078850943674452E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.9933955966210922E-2</c:v>
+                  <c:v>3.0074083990004129E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.99379298320641E-2</c:v>
+                  <c:v>3.0069605919003817E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.9941665076385619E-2</c:v>
+                  <c:v>3.006539914256243E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.9945175971139659E-2</c:v>
+                  <c:v>3.0061447152941255E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9948475941306053E-2</c:v>
+                  <c:v>3.0057734455293049E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.9951577614371058E-2</c:v>
+                  <c:v>3.0054246504526188E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.9954492867017259E-2</c:v>
+                  <c:v>3.0050969646219252E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.9957232869160216E-2</c:v>
+                  <c:v>3.0047891061312792E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.9959808125473265E-2</c:v>
+                  <c:v>3.0044998714325089E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.996222851453512E-2</c:v>
+                  <c:v>3.0042281304857123E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.9964503325729287E-2</c:v>
+                  <c:v>3.0039728222168573E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.9966641294017507E-2</c:v>
+                  <c:v>3.0037329502622362E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.9968650632704166E-2</c:v>
+                  <c:v>3.0035075789809434E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.9970539064302634E-2</c:v>
+                  <c:v>3.0032958297178676E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.9972313849608835E-2</c:v>
+                  <c:v>3.0030968773009026E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.9973981815082398E-2</c:v>
+                  <c:v>3.002909946757204E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.9975549378630281E-2</c:v>
+                  <c:v>3.0027343102343639E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.9977022573882954E-2</c:v>
+                  <c:v>3.0025692841133277E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.9978407073048718E-2</c:v>
+                  <c:v>3.00241422630078E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.9979708208426766E-2</c:v>
+                  <c:v>3.0022685336895338E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.9980930992655794E-2</c:v>
+                  <c:v>3.0021316397762461E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.9982080137770494E-2</c:v>
+                  <c:v>3.0020030124264754E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.9983160073134445E-2</c:v>
+                  <c:v>3.0018821517777572E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.9984174962314245E-2</c:v>
+                  <c:v>3.0017685882720049E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,304 +2319,304 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.5940000000000003</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.51206987693811</c:v>
+                  <c:v>2.0726925648889916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4354731480987581</c:v>
+                  <c:v>2.1416547293278922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3638444757804384</c:v>
+                  <c:v>2.2070282546458824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2968453203533583</c:v>
+                  <c:v>2.2689574192439372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2341618191582047</c:v>
+                  <c:v>2.3275872995873872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1755028447185678</c:v>
+                  <c:v>2.3830623967217162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1205982265105838</c:v>
+                  <c:v>2.4355255459040341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0691971219224685</c:v>
+                  <c:v>2.4851170587714275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0210665233069438</c:v>
+                  <c:v>2.5319740568162983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9759898891908985</c:v>
+                  <c:v>2.5762299623893545</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.933765888767593</c:v>
+                  <c:v>2.6180141194334841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8942072497657434</c:v>
+                  <c:v>2.6574515209885377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8571397006742765</c:v>
+                  <c:v>2.6946626244416763</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8224009991084715</c:v>
+                  <c:v>2.7297632387164761</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7898400388389821</c:v>
+                  <c:v>2.7628644702398937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7593160286758565</c:v>
+                  <c:v>2.7940727167110713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7306977370105874</c:v>
+                  <c:v>2.8234896995072654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7038627963754758</c:v>
+                  <c:v>2.8512125270690873</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6786970628858833</c:v>
+                  <c:v>2.877333782864735</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6550940258915845</c:v>
+                  <c:v>2.9019416325851566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.632954263582302</c:v>
+                  <c:v>2.9251199461045458</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6121849406733944</c:v>
+                  <c:v>2.9469484304821898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.592699344643798</c:v>
+                  <c:v>2.9675027709059032</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5744164573128274</c:v>
+                  <c:v>2.9868547770033707</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5572605588282071</c:v>
+                  <c:v>3.0050725323915843</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5411608613972048</c:v>
+                  <c:v>3.0222205457092519</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5260511703284609</c:v>
+                  <c:v>3.0383599016935148</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5118695701661551</c:v>
+                  <c:v>3.0535484111295896</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4985581338925384</c:v>
+                  <c:v>3.0678407587276042</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.4860626533513859</c:v>
+                  <c:v>3.0812886481713404</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4743323892052573</c:v>
+                  <c:v>3.0939409437441072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4633198388850817</c:v>
+                  <c:v>3.1058438080721027</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4529805211228761</c:v>
+                  <c:v>3.1170408356391768</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4432727757786408</c:v>
+                  <c:v>3.1275731818220733</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4341575777817299</c:v>
+                  <c:v>3.1374796872747961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4255983641063676</c:v>
+                  <c:v>3.1467969975570051</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.417560872791316</c:v>
+                  <c:v>3.1555596779562642</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.4100129930959349</c:v>
+                  <c:v>3.1638003234992724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4029246259597197</c:v>
+                  <c:v>3.1715496641843144</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.3962675540005374</c:v>
+                  <c:v>3.1788366654972848</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3900153203489154</c:v>
+                  <c:v>3.1856886242978772</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3841431156723276</c:v>
+                  <c:v>3.192131260181728</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3786276727950941</c:v>
+                  <c:v>3.1981888024392617</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3734471683666025</c:v>
+                  <c:v>3.2038840727433509</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3685811310736824</c:v>
+                  <c:v>3.2092385637062804</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3640103559322161</c:v>
+                  <c:v>3.2142725134522681</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3597168242291211</c:v>
+                  <c:v>3.2190049763555342</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3556836287187282</c:v>
+                  <c:v>3.2234538900957883</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3518949037077292</c:v>
+                  <c:v>3.22763613918347</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3483357596905066</c:v>
+                  <c:v>3.2315676151063109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3449922222219972</c:v>
+                  <c:v>3.235263273247047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3418511747384838</c:v>
+                  <c:v>3.2387371867195545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.3389003050580763</c:v>
+                  <c:v>3.2420025972675077</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3361280553122694</c:v>
+                  <c:v>3.2450719633659699</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3335235750780106</c:v>
+                  <c:v>3.2479570056622613</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3310766774963456</c:v>
+                  <c:v>3.2506687498880891</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3287777981789946</c:v>
+                  <c:v>3.2532175673703612</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3266179567183456</c:v>
+                  <c:v>3.2556132132634312</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.324588720629345</c:v>
+                  <c:v>3.2578648626207127</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3226821715637933</c:v>
+                  <c:v>3.2599811444188402</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.3208908736486604</c:v>
+                  <c:v>3.2619701736427418</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3192078438102621</c:v>
+                  <c:v>3.2638395815352532</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.3176265239556861</c:v>
+                  <c:v>3.2655965441102355</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.3161407548915798</c:v>
+                  <c:v>3.2672478090235724</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.3147447518685973</c:v>
+                  <c:v>3.2687997208919675</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.3134330816473154</c:v>
+                  <c:v>3.2702582451450999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3122006409884435</c:v>
+                  <c:v>3.2716289904925069</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3110426364766261</c:v>
+                  <c:v>3.2729172300824838</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.3099545655931766</c:v>
+                  <c:v>3.274127921426357</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.3089321989586646</c:v>
+                  <c:v>3.2752657251577366</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.3079715636715021</c:v>
+                  <c:v>3.2763350226927033</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3070689276735017</c:v>
+                  <c:v>3.2773399328534447</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.3062207850778766</c:v>
+                  <c:v>3.2782843275144899</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.3054238423993634</c:v>
+                  <c:v>3.2791718463275532</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.30467500563004</c:v>
+                  <c:v>3.2800059105779629</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3039713681080474</c:v>
+                  <c:v>3.2807897362227267</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.3033101991298288</c:v>
+                  <c:v>3.2815263461575896</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3026889332596423</c:v>
+                  <c:v>3.2822185817577711</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.3021051602930775</c:v>
+                  <c:v>3.2828691137346313</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.3015566158340386</c:v>
+                  <c:v>3.2834804523480958</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3010411724472433</c:v>
+                  <c:v>3.2840549570125055</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.3005568313506775</c:v>
+                  <c:v>3.2845948453313407</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.3001017146146947</c:v>
+                  <c:v>3.2851022015943472</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2996740578365453</c:v>
+                  <c:v>3.2855789847686059</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.2992722032610802</c:v>
+                  <c:v>3.286027036013345</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2988945933202025</c:v>
+                  <c:v>3.2864480857465401</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.2985397645653558</c:v>
+                  <c:v>3.2868437602897562</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.2982063419689589</c:v>
+                  <c:v>3.2872155881161564</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2978930335721595</c:v>
+                  <c:v>3.2875650057251504</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.2975986254577201</c:v>
+                  <c:v>3.2878933631657983</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2973219770281572</c:v>
+                  <c:v>3.2882019292298073</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.2970620165704689</c:v>
+                  <c:v>3.2884918963337229</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.2968177370899534</c:v>
+                  <c:v>3.2887643851087849</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2965881923967064</c:v>
+                  <c:v>3.2890204487158439</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.296372493429387</c:v>
+                  <c:v>3.2892610769016919</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2961698048017944</c:v>
+                  <c:v>3.2894871998122195</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.2959793415586871</c:v>
+                  <c:v>3.2896996915768884</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.2958003661281112</c:v>
+                  <c:v>3.2898993736781752</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.2956321854582877</c:v>
+                  <c:v>3.2900870181188058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5259,7 +5259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5355,7 +5355,7 @@
         <v>0.03</v>
       </c>
       <c r="G5" s="6">
-        <v>4.5940000000000003</v>
+        <v>2</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -5365,23 +5365,23 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J36" si="0">G5^B5*(H5*I5)^(1-B5)</f>
-        <v>1.6539524776347969</v>
+        <v>1.2570133745218284</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K36" si="1">J5/I5</f>
-        <v>1.6539524776347969</v>
+        <v>1.2570133745218284</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L36" si="2">G5/(H5*I5)</f>
-        <v>4.5940000000000003</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M36" si="3">C5*(1/L5)^(1-B5)-E5</f>
-        <v>2.2004896718972433E-2</v>
+        <v>7.570133745218284E-2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N36" si="4">B5*(M5-F5-D5)+F5</f>
-        <v>2.4061615917260901E-2</v>
+        <v>4.1781441359220337E-2</v>
       </c>
       <c r="O5" s="2">
         <f>(C5/(D5+E5+F5))^(1/(1-B5))</f>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="Q5" s="2">
         <f>LN(K5)</f>
-        <v>0.50316786440807926</v>
+        <v>0.22873856958478198</v>
       </c>
       <c r="R5" s="2">
         <f>LN(P5)</f>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="G6" s="2">
         <f>G5*EXP(M5)</f>
-        <v>4.6962109418261084</v>
+        <v>2.1572807531249181</v>
       </c>
       <c r="H6" s="2">
         <f>H5*EXP(F6)</f>
@@ -5439,23 +5439,23 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.7112592111784113</v>
+        <v>1.3238180332458818</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>1.6942318975289188</v>
+        <v>1.310645823729236</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>4.51206987693811</v>
+        <v>2.0726925648889916</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>2.2878294113125724E-2</v>
+        <v>7.2730250230830823E-2</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>2.4349837057331486E-2</v>
+        <v>4.080098257617417E-2</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" ref="O6:O69" si="5">(C6/(D6+E6+F6))^(1/(1-B6))</f>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q69" si="7">LN(K6)</f>
-        <v>0.52722948032534034</v>
+        <v>0.27052001094400246</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ref="R6:R69" si="8">LN(P6)</f>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G70" si="14">G6*EXP(M6)</f>
-        <v>4.8048907003549211</v>
+        <v>2.3200268717058194</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H70" si="15">H6*EXP(F7)</f>
@@ -5513,23 +5513,23 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.7710619127308624</v>
+        <v>1.392806802519132</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>1.7359925372029161</v>
+        <v>1.3652273800018775</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>4.4354731480987581</v>
+        <v>2.1416547293278922</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>2.3719134239621312E-2</v>
+        <v>7.0068161235999724E-2</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>2.4627314299075033E-2</v>
+        <v>3.9922493207879911E-2</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.55157931738267185</v>
+        <v>0.31132099352017689</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="14"/>
-        <v>4.9202209072244951</v>
+        <v>2.4884174084599566</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="15"/>
@@ -5587,23 +5587,23 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.8334631894696349</v>
+        <v>1.4641040519181061</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>1.77927616314641</v>
+        <v>1.4208332378341997</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>4.3638444757804384</v>
+        <v>2.2070282546458824</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.4527677681199678E-2</v>
+        <v>6.7673509833241163E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>2.4894133634795892E-2</v>
+        <v>3.9132258244969582E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0.57620663168174691</v>
+        <v>0.35124348672805672</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="14"/>
-        <v>5.0423946944049529</v>
+        <v>2.6626461973002824</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="15"/>
@@ -5661,23 +5661,23 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.8985696090701099</v>
+        <v>1.5378352488668958</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8241256298901172</v>
+        <v>1.4775358662674989</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>4.2968453203533583</v>
+        <v>2.2689574192439372</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>2.5304283941785258E-2</v>
+        <v>6.5511798032058643E-2</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>2.5150413700789135E-2</v>
+        <v>3.8418893350579353E-2</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>0.60110076531654277</v>
+        <v>0.3903757449730263</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="14"/>
-        <v>5.1716169244163126</v>
+        <v>2.8429215475746159</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="15"/>
@@ -5735,23 +5735,23 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>1.9664918707567367</v>
+        <v>1.6141276215653737</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>1.8705849305052642</v>
+        <v>1.5354056885323375</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.2341618191582047</v>
+        <v>2.3275872995873872</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>2.6049401937429162E-2</v>
+        <v>6.355414453433908E-2</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>2.5396302639351623E-2</v>
+        <v>3.7772867696331897E-2</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>0.62625117901733218</v>
+        <v>0.4287946383236057</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="14"/>
-        <v>5.308104443513086</v>
+        <v>3.0294660469953709</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="15"/>
@@ -5809,23 +5809,23 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.0373449837769861</v>
+        <v>1.6931107306781257</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>1.9186992483969434</v>
+        <v>1.5945116375835726</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.1755028447185678</v>
+        <v>2.3830623967217162</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>2.6763560531171501E-2</v>
+        <v>6.1776181308079409E-2</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>2.5631974975286596E-2</v>
+        <v>3.7186139831666201E-2</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>0.65164748165668374</v>
+        <v>0.46656750601993757</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="14"/>
-        <v>5.4520863581609236</v>
+        <v>3.2225164584950377</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="15"/>
@@ -5883,23 +5883,23 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>2.1112484534932561</v>
+        <v>1.7749169726324021</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>1.9685150103231042</v>
+        <v>1.654921616128628</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>4.1205982265105838</v>
+        <v>2.4355255459040341</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>2.7447359223613424E-2</v>
+        <v>6.0157201397898472E-2</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2.5857628543792428E-2</v>
+        <v>3.6651876461306493E-2</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>0.67727945663197042</v>
+        <v>0.5037536458516042</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="14"/>
-        <v>5.6038043351553979</v>
+        <v>3.4223236992590436</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="15"/>
@@ -5957,23 +5957,23 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>2.1883264753024201</v>
+        <v>1.8596820315148885</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>2.0200799405823164</v>
+        <v>1.716702882372902</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>4.0691971219224685</v>
+        <v>2.4851170587714275</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>2.8101459095349973E-2</v>
+        <v>5.867949352175672E-2</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.607348150146549E-2</v>
+        <v>3.6164232862179714E-2</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>0.7031370851757629</v>
+        <v>0.54040552231291061</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="14"/>
-        <v>5.7635129257597217</v>
+        <v>3.6291528925384728</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="15"/>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>2.2687081366085646</v>
+        <v>1.9475452923896663</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>2.073443116325147</v>
+        <v>1.7799223774430901</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>4.0210665233069438</v>
+        <v>2.5319740568162983</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>2.8726574081883005E-2</v>
+        <v>5.7327817265225386E-2</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>2.627976944702139E-2</v>
+        <v>3.5718179697524374E-2</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>0.72921056667722839</v>
+        <v>0.57656975517509024</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" si="14"/>
-        <v>5.9314799142669576</v>
+        <v>3.8432834846958781</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="15"/>
@@ -6105,23 +6105,23 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>2.352527627091439</v>
+        <v>2.0386502258524333</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>2.128655023955683</v>
+        <v>1.8446470066387437</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3.9759898891908985</v>
+        <v>2.5762299623893545</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>2.9323462646578854E-2</v>
+        <v>5.6088985315313186E-2</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>2.647674267337102E-2</v>
+        <v>3.5309365154053349E-2</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>0.75549033612425021</v>
+        <v>0.6122879348726149</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="14"/>
-        <v>6.1079866914231005</v>
+        <v>4.065009421408968</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="15"/>
@@ -6179,23 +6179,23 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2.4399244575311454</v>
+        <v>2.1331447514377881</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>2.1857676166012672</v>
+        <v>1.9109438838666009</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3.933765888767593</v>
+        <v>2.6180141194334841</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>2.9892919902962903E-2</v>
+        <v>5.4951528043367809E-2</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>2.6664663567977757E-2</v>
+        <v>3.4934004254311375E-2</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>0.78196707879762106</v>
+        <v>0.64759730002666827</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="14"/>
-        <v>6.293328653180402</v>
+        <v>4.294639378138144</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="15"/>
@@ -6253,23 +6253,23 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>2.5310436874684465</v>
+        <v>2.2311815858704613</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>2.2448343726397222</v>
+        <v>1.9788805465355124</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>3.8942072497657434</v>
+        <v>2.6574515209885377</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>3.0435770224374242E-2</v>
+        <v>5.3905422058405567E-2</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>2.6843804174043501E-2</v>
+        <v>3.4588789279273835E-2</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>0.80863174236559876</v>
+        <v>0.68253130428097986</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="14"/>
-        <v>6.4878156252854158</v>
+        <v>4.5324970409210632</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="15"/>
@@ -6327,23 +6327,23 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>2.6260361619996173</v>
+        <v>2.3329185809361479</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>2.3059103552840341</v>
+        <v>2.0485251466297143</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>3.8571397006742765</v>
+        <v>2.6946626244416763</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>3.0952860366900189E-2</v>
+        <v>5.2941868902448008E-2</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>2.7014443921077061E-2</v>
+        <v>3.4270816737807838E-2</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>0.83547554653964262</v>
+        <v>0.71712009356025375</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="14"/>
-        <v>6.6917723142435399</v>
+        <v>4.7789214343401536</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="15"/>
@@ -6401,23 +6401,23 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>2.7250587580249954</v>
+        <v>2.4385190548306728</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>2.3690522732346748</v>
+        <v>2.1199466224939605</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>3.8224009991084715</v>
+        <v>2.7297632387164761</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>3.1445053120670793E-2</v>
+        <v>5.20531133785994E-2</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>2.7176867529821361E-2</v>
+        <v>3.39775274149378E-2</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>0.86248999046071972</v>
+        <v>0.7513909102980616</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="14"/>
-        <v>6.9055387852412036</v>
+        <v>5.0342672941550717</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="15"/>
@@ -6475,23 +6475,23 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>2.8282746402911085</v>
+        <v>2.5481521201485915</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>2.4343185424192719</v>
+        <v>2.1932148549563184</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>3.7898400388389821</v>
+        <v>2.7628644702398937</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>3.1913221495064578E-2</v>
+        <v>5.1232293450412122E-2</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.7331363093371308E-2</v>
+        <v>3.3706656838636002E-2</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.88966685799054102</v>
+        <v>0.78536843771299936</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="14"/>
-        <v>7.1294709676483832</v>
+        <v>5.2989054826301842</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="15"/>
@@ -6549,23 +6549,23 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.9358535275874607</v>
+        <v>2.6619930111377115</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>2.5017693488482005</v>
+        <v>2.2684008107124671</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>3.7593160286758565</v>
+        <v>2.7940727167110713</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>3.2358243435160125E-2</v>
+        <v>5.047331547481744E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>2.7478220333602841E-2</v>
+        <v>3.3456194106689756E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>0.9169982210839126</v>
+        <v>0.81907509455163563</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="14"/>
-        <v>7.3639411887677184</v>
+        <v>5.5732234450394271</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="15"/>
@@ -6623,23 +6623,23 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0479719694807015</v>
+        <v>2.7802234124337613</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>2.571466712622859</v>
+        <v>2.345576675347905</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>3.7306977370105874</v>
+        <v>2.8234896995072654</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>3.2780997059829842E-2</v>
+        <v>4.9770749902674799E-2</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>2.7617729029743847E-2</v>
+        <v>3.3224347467882685E-2</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>0.94447644141751552</v>
+        <v>0.8525312886583255</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="14"/>
-        <v>7.6093387365421128</v>
+        <v>5.8576257062146153</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="15"/>
@@ -6697,23 +6697,23 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>3.1648136339909372</v>
+        <v>2.9030317911700938</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>2.6434745531408912</v>
+        <v>2.4248159779442924</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>3.7038627963754758</v>
+        <v>2.8512125270690873</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>3.3182356406152413E-2</v>
+        <v>4.9119743622066503E-2</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>2.7750177614030296E-2</v>
+        <v>3.3009515395281942E-2</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>0.97209417044725932</v>
+        <v>0.88575563612620811</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="14"/>
-        <v>7.8660704519803701</v>
+        <v>6.1525344063318164</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="15"/>
@@ -6771,23 +6771,23 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.2865696066373413</v>
+        <v>3.0306137341089379</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.7178587555493983</v>
+        <v>2.5061937088755917</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.6786970628858833</v>
+        <v>2.877333782864735</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>3.3563187660235402E-2</v>
+        <v>4.8515945916206962E-2</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>2.7875851927877681E-2</v>
+        <v>3.2810262152348293E-2</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>0.99984434806128974</v>
+        <v>0.91876515152149019</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="14"/>
-        <v>8.1345613521100244</v>
+        <v>6.4583898754145137</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="15"/>
@@ -6845,23 +6845,23 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.4134387013030141</v>
+        <v>3.163172291247331</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>2.794687238503351</v>
+        <v>2.5897864321283381</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>3.6550940258915845</v>
+        <v>2.9019416325851566</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>3.3924345850992993E-2</v>
+        <v>4.7955445622406376E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>2.7995034130827687E-2</v>
+        <v>3.2625297055394104E-2</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>1.0277201999891676</v>
+        <v>0.95157541367383869</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="14"/>
-        <v>8.4152552843181105</v>
+        <v>6.7756512462802538</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="15"/>
@@ -6919,23 +6919,23 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>3.5456277833922343</v>
+        <v>3.3009183272002192</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>2.8740300232919465</v>
+        <v>2.6756723932627668</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>3.632954263582302</v>
+        <v>2.9251199461045458</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>3.4266671980814137E-2</v>
+        <v>4.7434717556113337E-2</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>2.8108001753668663E-2</v>
+        <v>3.2453456793517403E-2</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>1.0557152341199953</v>
+        <v>0.98420071072923299</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="14"/>
-        <v>8.7086156129941497</v>
+        <v>7.1047971058761661</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="15"/>
@@ -6993,23 +6993,23 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>3.6833521057768399</v>
+        <v>3.4440708815462187</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>2.9559593044006003</v>
+        <v>2.7639316239560516</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>3.6121849406733944</v>
+        <v>2.9469484304821898</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>3.4590990565271956E-2</v>
+        <v>4.6950576637796768E-2</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>2.8215026886539745E-2</v>
+        <v>3.229369029047293E-2</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>1.0838232358736641</v>
+        <v>1.0166541675227505</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="14"/>
-        <v>9.0151259394451131</v>
+        <v>7.4463261851435147</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="15"/>
@@ -7067,23 +7067,23 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3.8268356580525165</v>
+        <v>3.5928575392311748</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>3.0405495215806901</v>
+        <v>2.8546460439266159</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>3.592699344643798</v>
+        <v>2.9675027709059032</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>3.4898107552961424E-2</v>
+        <v>4.6500138454838039E-2</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>2.8316375492477269E-2</v>
+        <v>3.2145045690096553E-2</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>1.1120382627602039</v>
+        <v>1.0489478578132234</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="14"/>
-        <v>9.3352908561094612</v>
+        <v>7.8007580877266918</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="15"/>
@@ -7141,23 +7141,23 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>3.9763115296503355</v>
+        <v>3.7475148120556327</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>3.1278774335031265</v>
+        <v>2.9478995609225569</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>3.5744164573128274</v>
+        <v>2.9868547770033707</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>3.5188808596103821E-2</v>
+        <v>4.6080785223984289E-2</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>2.8412306836714259E-2</v>
+        <v>3.2006659123914816E-2</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>1.1403546382526815</v>
+        <v>1.0810929035033201</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="14"/>
-        <v>9.6696367361567788</v>
+        <v>8.1686340580014445</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="15"/>
@@ -7215,23 +7215,23 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>4.1320222873739354</v>
+        <v>3.9082885322204999</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>3.2180221930753268</v>
+        <v>3.0437781693623251</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>3.5572605588282071</v>
+        <v>3.0050725323915843</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>3.5463857642623692E-2</v>
+        <v>4.5690136306013193E-2</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>2.8503073022065818E-2</v>
+        <v>3.1877744980984356E-2</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>1.1687669450893958</v>
+        <v>1.1130995626272351</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="14"/>
-        <v>10.018712559620791</v>
+        <v>8.5505177890434663</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="15"/>
@@ -7289,23 +7289,23 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>4.2942203679584559</v>
+        <v>4.0754342588673165</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>3.3110654245043505</v>
+        <v>3.1423700481378347</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>3.5411608613972048</v>
+        <v>3.0222205457092519</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>3.572399582089604E-2</v>
+        <v>4.5326022573499158E-2</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>2.8588918620895694E-2</v>
+        <v>3.1757587449254721E-2</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>1.1972700181114617</v>
+        <v>1.1449773076082193</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="14"/>
-        <v>10.383090777276871</v>
+        <v>8.9469962712943438</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="15"/>
@@ -7363,23 +7363,23 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>4.4631684862735943</v>
+        <v>4.2492176985231893</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>3.4070913021917244</v>
+        <v>3.2437656580258483</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>3.5260511703284609</v>
+        <v>3.0383599016935148</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>3.5969940589195754E-2</v>
+        <v>4.4986464052889669E-2</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>2.8670080394434597E-2</v>
+        <v>3.1645533137453587E-2</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>1.2258589367323574</v>
+        <v>1.1767348950574741</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="14"/>
-        <v>10.763368213540524</v>
+        <v>9.3586806828091866</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="15"/>
@@ -7437,23 +7437,23 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>4.6391400598202575</v>
+        <v>4.4299151403435939</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>3.5061866315481023</v>
+        <v>3.3480578391002562</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>3.5118695701661551</v>
+        <v>3.0535484111295896</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>3.6202385122979089E-2</v>
+        <v>4.4669650359603283E-2</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>2.8746787090583099E-2</v>
+        <v>3.1540984618669082E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>1.254529017126792</v>
+        <v>1.2083804281949277</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="14"/>
-        <v>11.160167009730745</v>
+        <v>9.7862073220907035</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="15"/>
@@ -7511,23 +7511,23 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>4.8224196501980225</v>
+        <v>4.6178139070374229</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>3.6084409318181598</v>
+        <v>3.4553419084937453</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.4985581338925384</v>
+        <v>3.0678407587276042</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>3.642199791442674E-2</v>
+        <v>4.4373923524254219E-2</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>2.8819259311760822E-2</v>
+        <v>3.1443394763003889E-2</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>1.2832758042173755</v>
+        <v>1.2399214128135971</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="14"/>
-        <v>11.574135609111801</v>
+        <v>10.230238584629681</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="15"/>
@@ -7585,23 +7585,23 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>5.0133034222493169</v>
+        <v>4.8132128223565021</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>3.7139465210083173</v>
+        <v>3.5657157588205841</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>3.4860626533513859</v>
+        <v>3.0812886481713404</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>3.6629422560118738E-2</v>
+        <v>4.4097762873058804E-2</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>2.8887709444839184E-2</v>
+        <v>3.1352261748109407E-2</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>1.3120950635291364</v>
+        <v>1.2713648075766011</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="14"/>
-        <v>12.005949785198757</v>
+        <v>10.69146398438267</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="15"/>
@@ -7659,23 +7659,23 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.2120996216157476</v>
+        <v>5.0164226960355469</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.8227986030118521</v>
+        <v>3.679279957541727</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.4743323892052573</v>
+        <v>3.0939409437441072</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>3.6825277714243945E-2</v>
+        <v>4.3839771678849199E-2</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>2.89523416457005E-2</v>
+        <v>3.1267124654020234E-2</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1.3409827729739758</v>
+        <v>1.302717069324711</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="14"/>
-        <v>12.456313714886281</v>
+        <v>11.170601221525493</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="15"/>
@@ -7733,23 +7733,23 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" ref="J37:J68" si="18">G37^B37*(H37*I37)^(1-B37)</f>
-        <v>5.4191290714725442</v>
+        <v>5.2277668270771818</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K68" si="19">J37/I37</f>
-        <v>3.935095357027846</v>
+        <v>3.7961378475278926</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" ref="L37:L68" si="20">G37/(H37*I37)</f>
-        <v>3.4633198388850817</v>
+        <v>3.1058438080721027</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ref="M37:M68" si="21">C37*(1/L37)^(1-B37)-E37</f>
-        <v>3.7010157186331244E-2</v>
+        <v>4.3598665343157997E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" ref="N37:N68" si="22">B37*(M37-F37-D37)+F37</f>
-        <v>2.9013351871489311E-2</v>
+        <v>3.1187559563242137E-2</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.3699351146196763</v>
+        <v>1.3339841939787307</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="14"/>
-        <v>12.925961098036723</v>
+        <v>11.668397297926752</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="15"/>
@@ -7807,23 +7807,23 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="18"/>
-        <v>5.6347256892386621</v>
+        <v>5.4475815262898433</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="19"/>
-        <v>4.0509380293722561</v>
+        <v>3.9163956490550977</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="20"/>
-        <v>3.4529805211228761</v>
+        <v>3.1170408356391768</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="21"/>
-        <v>3.7184630164088947E-2</v>
+        <v>4.3373260906324707E-2</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="22"/>
-        <v>2.9070927954149353E-2</v>
+        <v>3.1113176099087151E-2</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.3989484664911658</v>
+        <v>1.3651717535419732</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="14"/>
-        <v>13.41565632524255</v>
+        <v>12.185629681889504</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="15"/>
@@ -7881,23 +7881,23 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="18"/>
-        <v>5.8592370240927467</v>
+        <v>5.6762166590032956</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="19"/>
-        <v>4.1704310277811416</v>
+        <v>4.0401625634492921</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="20"/>
-        <v>3.4432727757786408</v>
+        <v>3.1275731818220733</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="21"/>
-        <v>3.7349241543526424E-2</v>
+        <v>4.3162467712922356E-2</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="22"/>
-        <v>2.9125249709363719E-2</v>
+        <v>3.1043614345264377E-2</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>1.4280193944453152</v>
+        <v>1.3962849296410604</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="14"/>
-        <v>13.926195695559853</v>
+        <v>12.723107523812587</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="15"/>
@@ -7955,23 +7955,23 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="18"/>
-        <v>6.0930248161590583</v>
+        <v>5.9140362089072402</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="19"/>
-        <v>4.2936820183078579</v>
+        <v>4.1675508785821602</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="20"/>
-        <v>3.4341575777817299</v>
+        <v>3.1374796872747961</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="21"/>
-        <v>3.750451235008459E-2</v>
+        <v>4.2965279085137364E-2</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="22"/>
-        <v>2.9176489075527914E-2</v>
+        <v>3.0978542098095328E-2</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>1.4571446441546791</v>
+        <v>1.4273285439863248</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="14"/>
-        <v>14.458408686093973</v>
+        <v>13.281672924526156</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="15"/>
@@ -8029,23 +8029,23 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="18"/>
-        <v>6.3364655782625841</v>
+        <v>6.1614188639821412</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="19"/>
-        <v>4.4208020249178075</v>
+        <v>4.2986760764078227</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="20"/>
-        <v>3.4255983641063676</v>
+        <v>3.1467969975570051</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="21"/>
-        <v>3.7650940236002128E-2</v>
+        <v>4.2780764877959954E-2</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="22"/>
-        <v>2.9224810277880701E-2</v>
+        <v>3.0917652409726784E-2</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>1.4863211332302071</v>
+        <v>1.4583070860844205</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="14"/>
-        <v>15.013159275405537</v>
+        <v>13.862202258159344</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="15"/>
@@ -8103,23 +8103,23 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="18"/>
-        <v>6.5899512011889501</v>
+        <v>6.4187586255182705</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="19"/>
-        <v>4.5519055318860984</v>
+        <v>4.4336569427201269</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="20"/>
-        <v>3.417560872791316</v>
+        <v>3.1555596779562642</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="21"/>
-        <v>3.7789000040578655E-2</v>
+        <v>4.2608064807886731E-2</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="22"/>
-        <v>2.9270370013390955E-2</v>
+        <v>3.0860661386602619E-2</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>1.5155459435080878</v>
+        <v>1.4892247384941473</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="14"/>
-        <v>15.591347322795349</v>
+        <v>14.465607551502277</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="15"/>
@@ -8177,23 +8177,23 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="18"/>
-        <v>6.8538895834227276</v>
+        <v>6.6864654412485942</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="19"/>
-        <v>4.6871105891053721</v>
+        <v>4.5726156793019985</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="20"/>
-        <v>3.4100129930959349</v>
+        <v>3.1638003234992724</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="21"/>
-        <v>3.7919144401356394E-2</v>
+        <v>4.2446382461885521E-2</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="22"/>
-        <v>2.9313317652447608E-2</v>
+        <v>3.0807306212422222E-2</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1.5448163135214792</v>
+        <v>1.5200853998807498</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="14"/>
-        <v>16.193910005619887</v>
+        <v>15.092837921930132</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="15"/>
@@ -8251,23 +8251,23 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="18"/>
-        <v>7.1287052863768903</v>
+        <v>6.9649658636532967</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="19"/>
-        <v>4.8265389204129017</v>
+        <v>4.7156780186315306</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="20"/>
-        <v>3.4029246259597197</v>
+        <v>3.1715496641843144</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="21"/>
-        <v>3.8041804405519922E-2</v>
+        <v>4.2294979906106242E-2</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="22"/>
-        <v>2.9353795453821573E-2</v>
+        <v>3.0757343369015058E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1.5741296311739268</v>
+        <v>1.5508927060931719</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="14"/>
-        <v>16.821823316885737</v>
+        <v>15.744881076064088</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="15"/>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="18"/>
-        <v>7.4148402161672422</v>
+        <v>7.2547037345286798</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="19"/>
-        <v>4.9703160350481568</v>
+        <v>4.86297334130421</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="20"/>
-        <v>3.3962675540005374</v>
+        <v>3.1788366654972848</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="21"/>
-        <v>3.8157390272007333E-2</v>
+        <v>4.2153172824627202E-2</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="22"/>
-        <v>2.9391938789762418E-2</v>
+        <v>3.0710547032126976E-2</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>1.6034834266277485</v>
+        <v>1.5816500494621872</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="14"/>
-        <v>17.4761036254712</v>
+        <v>16.422764871453246</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="15"/>
@@ -8399,23 +8399,23 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="18"/>
-        <v>7.71275433302797</v>
+        <v>7.5561408969503718</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="19"/>
-        <v>5.1185713423540156</v>
+        <v>5.0146347963264084</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="20"/>
-        <v>3.3900153203489154</v>
+        <v>3.1856886242978772</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="21"/>
-        <v>3.8266292055933224E-2</v>
+        <v>4.2020326127725091E-2</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="22"/>
-        <v>2.9427876378457962E-2</v>
+        <v>3.0666707622149278E-2</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>1.6328753654175108</v>
+        <v>1.6123605964943142</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="14"/>
-        <v>18.157809301426969</v>
+        <v>17.127558943673172</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="15"/>
@@ -8473,23 +8473,23 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="18"/>
-        <v>8.0229263895088145</v>
+        <v>7.8697579358006138</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="19"/>
-        <v>5.2714382698370859</v>
+        <v>5.170799424432122</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="20"/>
-        <v>3.3841431156723276</v>
+        <v>3.192131260181728</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="21"/>
-        <v>3.8368880367945238E-2</v>
+        <v>4.1895849977006322E-2</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="22"/>
-        <v>2.9461730521421928E-2</v>
+        <v>3.0625630492412084E-2</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>1.6623032417959691</v>
+        <v>1.6430273041164638</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="14"/>
-        <v>18.868042408914949</v>
+        <v>17.860376401350987</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="15"/>
@@ -8547,23 +8547,23 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="18"/>
-        <v>8.3458546986402595</v>
+        <v>8.1960549480714491</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="19"/>
-        <v>5.4290543847048376</v>
+        <v>5.3316082845725417</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="20"/>
-        <v>3.3786276727950941</v>
+        <v>3.1981888024392617</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="21"/>
-        <v>3.8465507102071556E-2</v>
+        <v>4.1779196181458852E-2</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="22"/>
-        <v>2.9493617343683613E-2</v>
+        <v>3.0587134739881422E-2</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1.6917649723173906</v>
+        <v>1.6736529346088755</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="14"/>
-        <v>19.607950469455552</v>
+        <v>18.622375591744301</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="15"/>
@@ -8621,23 +8621,23 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="18"/>
-        <v>8.6820579333010954</v>
+        <v>8.5355523442003065</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="19"/>
-        <v>5.5915615189997583</v>
+        <v>5.4972065837266086</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="20"/>
-        <v>3.3734471683666025</v>
+        <v>3.2038840727433509</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="21"/>
-        <v>3.8556506166472063E-2</v>
+        <v>4.166985492424824E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="22"/>
-        <v>2.952364703493578E-2</v>
+        <v>3.0551052125001917E-2</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1.7212585896610746</v>
+        <v>1.7042400693487574</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="14"/>
-        <v>20.378728298269181</v>
+        <v>19.414761939621929</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="15"/>
@@ -8695,23 +8695,23 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="18"/>
-        <v>9.0320759580723564</v>
+        <v>8.8887916817412318</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="19"/>
-        <v>5.7591058984531607</v>
+        <v>5.6677438101796822</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="20"/>
-        <v>3.3685811310736824</v>
+        <v>3.2092385637062804</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="21"/>
-        <v>3.8642194212280434E-2</v>
+        <v>4.1567351785044129E-2</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="22"/>
-        <v>2.9551924090052542E-2</v>
+        <v>3.0517226089064563E-2</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>1.7507822366960102</v>
+        <v>1.7347911214737592</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="14"/>
-        <v>21.181619916617084</v>
+        <v>20.238789862318509</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="15"/>
@@ -8769,23 +8769,23 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="18"/>
-        <v>9.396470694913722</v>
+        <v>9.2563365327246174</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="19"/>
-        <v>5.9318382751841616</v>
+        <v>5.8433738704173646</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="20"/>
-        <v>3.3640103559322161</v>
+        <v>3.2142725134522681</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="21"/>
-        <v>3.8722871356426769E-2</v>
+        <v>4.1471245026941897E-2</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="22"/>
-        <v>2.9578547547620834E-2</v>
+        <v>3.0485510858890827E-2</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>1.7803341607860632</v>
+        <v>1.765308347562824</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="14"/>
-        <v>22.017920543170934</v>
+        <v>21.09576476396348</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="15"/>
@@ -8843,23 +8843,23 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="18"/>
-        <v>9.7758270240521341</v>
+        <v>9.6387733861099125</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="19"/>
-        <v>6.1099140643719387</v>
+        <v>6.0242552297816543</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="20"/>
-        <v>3.3597168242291211</v>
+        <v>3.2190049763555342</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="21"/>
-        <v>3.8798821894960464E-2</v>
+        <v>4.1381123120743199E-2</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="22"/>
-        <v>2.9603611225336952E-2</v>
+        <v>3.0455770629845256E-2</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>1.8099127083336841</v>
+        <v>1.795793858421715</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="14"/>
-        <v>22.888978667569308</v>
+        <v>21.987045112017064</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="15"/>
@@ -8917,23 +8917,23 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="18"/>
-        <v>10.170753721528845</v>
+        <v>10.036712586790227</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="19"/>
-        <v>6.2934934850325801</v>
+        <v>6.210551057037474</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="20"/>
-        <v>3.3556836287187282</v>
+        <v>3.2234538900957883</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="21"/>
-        <v>3.8870315003958447E-2</v>
+        <v>4.129660248256499E-2</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="22"/>
-        <v>2.9627203951306288E-2</v>
+        <v>3.0427878819246447E-2</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>1.8395163195590212</v>
+        <v>1.8262496290515604</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="14"/>
-        <v>23.796198209452847</v>
+        <v>22.914044599382848</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="15"/>
@@ -8991,23 +8991,23 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="18"/>
-        <v>10.581884434909384</v>
+        <v>10.450789312664611</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="19"/>
-        <v>6.4827417050347664</v>
+        <v>6.4024293729987862</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="20"/>
-        <v>3.3518949037077292</v>
+        <v>3.22763613918347</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="21"/>
-        <v>3.8937605425608007E-2</v>
+        <v>4.1217325403530791E-2</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="22"/>
-        <v>2.9649409790450641E-2</v>
+        <v>3.0401717383165161E-2</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>1.8691435235103273</v>
+        <v>1.8566775078708067</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="14"/>
-        <v>24.741040766408709</v>
+        <v>23.878234395508041</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="15"/>
@@ -9065,23 +9065,23 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="18"/>
-        <v>11.009878698721906</v>
+        <v>10.88166459135326</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="19"/>
-        <v>6.6778289904919035</v>
+        <v>6.6000632033651323</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="20"/>
-        <v>3.3483357596905066</v>
+        <v>3.2315676151063109</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="21"/>
-        <v>3.9000934137501511E-2</v>
+        <v>4.1142958152720996E-2</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="22"/>
-        <v>2.9670308265375499E-2</v>
+        <v>3.0377176190397929E-2</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1.8987929333007785</v>
+        <v>1.8870792252539721</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="14"/>
-        <v>25.72502795439917</v>
+        <v>24.881145490029095</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="15"/>
@@ -9139,23 +9139,23 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="18"/>
-        <v>11.455422991252767</v>
+        <v>11.330026358193075</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="19"/>
-        <v>6.8789308596717067</v>
+        <v>6.8036307359214172</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="20"/>
-        <v>3.3449922222219972</v>
+        <v>3.235263273247047</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="21"/>
-        <v>3.9060529003575345E-2</v>
+        <v>4.1073189236673122E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="22"/>
-        <v>2.9689974571179861E-2</v>
+        <v>3.0354152448102131E-2</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1.9284632415661538</v>
+        <v>1.91745640144437</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="14"/>
-        <v>26.749743844398914</v>
+        <v>25.92437113267227</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="15"/>
@@ -9213,23 +9213,23 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="18"/>
-        <v>11.919231834394157</v>
+        <v>11.796590557215991</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="19"/>
-        <v>7.0862282415678379</v>
+        <v>7.0133154822561092</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="20"/>
-        <v>3.3418511747384838</v>
+        <v>3.2387371867195545</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="21"/>
-        <v>3.9116605405475E-2</v>
+        <v>4.1007727800570229E-2</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="22"/>
-        <v>2.9708479783806748E-2</v>
+        <v>3.0332550174188174E-2</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>1.9581532161373336</v>
+        <v>1.9478105538924724</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="14"/>
-        <v>27.816837499121185</v>
+        <v>27.009569373276172</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="15"/>
@@ -9287,23 +9287,23 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="18"/>
-        <v>12.402048938307306</v>
+        <v>12.282102286880264</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="19"/>
-        <v>7.2999076392818907</v>
+        <v>7.2293064441556556</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="20"/>
-        <v>3.3389003050580763</v>
+        <v>3.2420025972675077</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="21"/>
-        <v>3.9169366853432752E-2</v>
+        <v>4.0946302157874703E-2</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="22"/>
-        <v>2.9725891061632807E-2</v>
+        <v>3.0312279712098652E-2</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>1.9878616959211406</v>
+        <v>1.9781431040666606</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="14"/>
-        <v>28.928025613874645</v>
+        <v>28.138465705966578</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="15"/>
@@ -9361,23 +9361,23 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="18"/>
-        <v>12.904648392736323</v>
+        <v>12.787336992395621</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="19"/>
-        <v>7.5201612983679507</v>
+        <v>7.4517982848358608</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="20"/>
-        <v>3.3361280553122694</v>
+        <v>3.2450719633659699</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="21"/>
-        <v>3.9219005576010782E-2</v>
+        <v>4.0888658436583861E-2</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="22"/>
-        <v>2.9742271840083559E-2</v>
+        <v>3.0293257284072672E-2</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>2.0175875869827737</v>
+        <v>2.0084553837787595</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="14"/>
-        <v>30.085095265760913</v>
+        <v>29.31285582168351</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="15"/>
@@ -9435,23 +9435,23 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="18"/>
-        <v>13.427835906882223</v>
+        <v>13.313101706556983</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="19"/>
-        <v>7.747187380296034</v>
+        <v>7.6809915051742301</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="20"/>
-        <v>3.3335235750780106</v>
+        <v>3.2479570056622613</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="21"/>
-        <v>3.9265703088293705E-2</v>
+        <v>4.0834559331533474E-2</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="22"/>
-        <v>2.9757682019136922E-2</v>
+        <v>3.0275404579406046E-2</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>2.0473298588228572</v>
+        <v>2.0387486410628322</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="14"/>
-        <v>31.289906775597345</v>
+        <v>30.534608473436275</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="15"/>
@@ -9509,23 +9509,23 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="18"/>
-        <v>13.972450099824204</v>
+        <v>13.860236341078405</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="19"/>
-        <v>7.9811901411949115</v>
+        <v>7.9170926251107669</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="20"/>
-        <v>3.3310766774963456</v>
+        <v>3.2506687498880891</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="21"/>
-        <v>3.9309630738313159E-2</v>
+        <v>4.0783782953275394E-2</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="22"/>
-        <v>2.977217814364334E-2</v>
+        <v>3.0258648374580879E-2</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>2.077087540841994</v>
+        <v>2.0690240456422382</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="14"/>
-        <v>32.544396687131311</v>
+        <v>31.805668458845066</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="15"/>
@@ -9583,23 +9583,23 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="18"/>
-        <v>14.539363843555975</v>
+        <v>14.429615030499098</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="19"/>
-        <v>8.2223801160392309</v>
+        <v>8.1603143703884857</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="20"/>
-        <v>3.3287777981789946</v>
+        <v>3.2532175673703612</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="21"/>
-        <v>3.9350950231657689E-2</v>
+        <v>4.0736121765026209E-2</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="22"/>
-        <v>2.9785813576447037E-2</v>
+        <v>3.0242920182458648E-2</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2.1068597189856377</v>
+        <v>2.0992826940168192</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="14"/>
-        <v>33.850580868301016</v>
+        <v>33.128059724717517</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="15"/>
@@ -9657,23 +9657,23 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="18"/>
-        <v>15.129485660788839</v>
+        <v>15.022147530816801</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="19"/>
-        <v>8.4709743084503959</v>
+        <v>8.4108758648088671</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="20"/>
-        <v>3.3266179567183456</v>
+        <v>3.2556132132634312</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="21"/>
-        <v>3.9389814134366458E-2</v>
+        <v>4.0691381600042667E-2</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="22"/>
-        <v>2.9798638664340932E-2</v>
+        <v>3.0228155928014078E-2</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.1366455325620848</v>
+        <v>2.1295256141992782</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="14"/>
-        <v>35.210557739494291</v>
+        <v>34.503888598605783</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="15"/>
@@ -9731,23 +9731,23 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="18"/>
-        <v>15.743761179761066</v>
+        <v>15.638780675091231</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="19"/>
-        <v>8.7271963862855451</v>
+        <v>8.6690028281818581</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="20"/>
-        <v>3.324588720629345</v>
+        <v>3.2578648626207127</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="21"/>
-        <v>3.9426366354327391E-2</v>
+        <v>4.0649380752540223E-2</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="22"/>
-        <v>2.9810700896928038E-2</v>
+        <v>3.0214295648338274E-2</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>2.1664441712264257</v>
+        <v>2.159753770127292</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="14"/>
-        <v>36.626511633960924</v>
+        <v>35.935347152494707</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="15"/>
@@ -9805,23 +9805,23 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="18"/>
-        <v>16.383174648383683</v>
+        <v>16.280499888350569</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="19"/>
-        <v>8.9912768831936827</v>
+        <v>8.9349277801543483</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="20"/>
-        <v>3.3226821715637933</v>
+        <v>3.2599811444188402</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="21"/>
-        <v>3.9460742601503104E-2</v>
+        <v>4.0609949135946205E-2</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="22"/>
-        <v>2.9822045058496022E-2</v>
+        <v>3.0201283214862248E-2</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>2.1962548721233541</v>
+        <v>2.1899680657756306</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="14"/>
-        <v>38.100716295746572</v>
+        <v>37.424716703984679</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="15"/>
@@ -9879,23 +9879,23 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="18"/>
-        <v>17.048750510147979</v>
+        <v>16.948330764228814</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="19"/>
-        <v>9.2634534063232863</v>
+        <v>9.2088902501058669</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="20"/>
-        <v>3.3208908736486604</v>
+        <v>3.2619701736427418</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="21"/>
-        <v>3.949307082739148E-2</v>
+        <v>4.0572927502878317E-2</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="22"/>
-        <v>2.9832713373039187E-2</v>
+        <v>3.0189066075949844E-2</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2.2260769171818504</v>
+        <v>2.2201693489904928</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" si="14"/>
-        <v>39.635538520737086</v>
+        <v>38.974371460554387</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="15"/>
@@ -9953,23 +9953,23 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" si="18"/>
-        <v>17.741555044318673</v>
+        <v>17.643340705860179</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="19"/>
-        <v>9.5439708503710321</v>
+        <v>9.4911369933052452</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="20"/>
-        <v>3.3192078438102621</v>
+        <v>3.2638395815352532</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="21"/>
-        <v>3.9523471644198269E-2</v>
+        <v>4.0538166721774307E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="22"/>
-        <v>2.9842745642585426E-2</v>
+        <v>3.0177595018185521E-2</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>2.2559096305548896</v>
+        <v>2.2503584150664429</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="14"/>
-        <v>41.233441946631956</v>
+        <v>40.586782312718782</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="15"/>
@@ -10027,23 +10027,23 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="18"/>
-        <v>18.462698073039189</v>
+        <v>18.366640633659056</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="19"/>
-        <v>9.8330816181665774</v>
+        <v>9.7819222135270021</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="20"/>
-        <v>3.3176265239556861</v>
+        <v>3.2655965441102355</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="21"/>
-        <v>3.9552058724252451E-2</v>
+        <v>4.0505527105574271E-2</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="22"/>
-        <v>2.9852179379003307E-2</v>
+        <v>3.0166823944839508E-2</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>2.2857523761974745</v>
+        <v>2.2805360100846284</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="14"/>
-        <v>42.896990997904538</v>
+        <v>42.264520782137261</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="15"/>
@@ -10101,23 +10101,23 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J100" si="23">G69^B69*(H69*I69)^(1-B69)</f>
-        <v>19.213334738082818</v>
+        <v>19.119386762721067</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K100" si="24">J69/I69</f>
-        <v>10.131045847994271</v>
+        <v>10.081507792331836</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L104" si="25">G69/(H69*I69)</f>
-        <v>3.3161407548915798</v>
+        <v>3.2672478090235724</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M100" si="26">C69*(1/L69)^(1-B69)-E69</f>
-        <v>3.9578939180239331E-2</v>
+        <v>4.0474877788282987E-2</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N100" si="27">B69*(M69-F69-D69)+F69</f>
-        <v>2.9861049929478977E-2</v>
+        <v>3.0156709670133387E-2</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" si="5"/>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="7"/>
-        <v>2.3156045555764786</v>
+        <v>2.3107028340294677</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="8"/>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="14"/>
-        <v>44.628854992055423</v>
+        <v>44.010263130976043</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="15"/>
@@ -10175,23 +10175,23 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="23"/>
-        <v>19.99466735009446</v>
+        <v>19.902782452691596</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="24"/>
-        <v>10.438131647858262</v>
+        <v>10.390163525220977</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="25"/>
-        <v>3.3147447518685973</v>
+        <v>3.2687997208919675</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="26"/>
-        <v>3.960421392685877E-2</v>
+        <v>4.04460961456206E-2</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="27"/>
-        <v>2.9869390595863392E-2</v>
+        <v>3.0147211728054797E-2</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" ref="O70:O104" si="28">(C70/(D70+E70+F70))^(1/(1-B70))</f>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="Q70" s="2">
         <f t="shared" ref="Q70:Q104" si="30">LN(K70)</f>
-        <v>2.3454656055059573</v>
+        <v>2.3408595436996009</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" ref="R70:R104" si="31">LN(P70)</f>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ref="G71:G104" si="38">G70*EXP(M70)</f>
-        <v>46.43181241372401</v>
+        <v>45.826794639087858</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" ref="H71:H104" si="39">H70*EXP(F71)</f>
@@ -10249,23 +10249,23 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" si="23"/>
-        <v>20.807947313283986</v>
+        <v>20.718080133064216</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="24"/>
-        <v>10.754615336903873</v>
+        <v>10.708167364880278</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="25"/>
-        <v>3.3134330816473154</v>
+        <v>3.2702582451450999</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="26"/>
-        <v>3.9627978024539545E-2</v>
+        <v>4.0419067256311156E-2</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="27"/>
-        <v>2.9877232748098049E-2</v>
+        <v>3.013829219458268E-2</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="28"/>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="30"/>
-        <v>2.3753349961018211</v>
+        <v>2.3710067554276564</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="31"/>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="38"/>
-        <v>48.308755363492544</v>
+        <v>47.717014055841446</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="39"/>
@@ -10323,23 +10323,23 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="23"/>
-        <v>21.654477128652434</v>
+        <v>21.566583306991628</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="24"/>
-        <v>11.08078169421403</v>
+        <v>11.035805671735753</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="25"/>
-        <v>3.3122006409884435</v>
+        <v>3.2716289904925069</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="26"/>
-        <v>3.965032100585629E-2</v>
+        <v>4.0393683400864383E-2</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="27"/>
-        <v>2.9884605931932574E-2</v>
+        <v>3.0129915522285246E-2</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="28"/>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="30"/>
-        <v>2.4052122288499191</v>
+        <v>2.4011450476222387</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="31"/>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="38"/>
-        <v>50.262694188496866</v>
+        <v>49.68393823371396</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="39"/>
@@ -10397,23 +10397,23 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" si="23"/>
-        <v>22.535612478958249</v>
+        <v>22.449648636817511</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="24"/>
-        <v>11.416924215206361</v>
+        <v>11.373373472048829</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="25"/>
-        <v>3.3110426364766261</v>
+        <v>3.2729172300824838</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="26"/>
-        <v>3.9671327185305388E-2</v>
+        <v>4.036984359498251E-2</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="27"/>
-        <v>2.9891537971150777E-2</v>
+        <v>3.0122048386344226E-2</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="28"/>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="30"/>
-        <v>2.4350968347818518</v>
+        <v>2.4312749631445247</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="31"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="38"/>
-        <v>52.296762302249597</v>
+        <v>51.730706951050635</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="39"/>
@@ -10471,23 +10471,23 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" si="23"/>
-        <v>23.452764398761079</v>
+        <v>23.368688114667826</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="24"/>
-        <v>11.763345375863004</v>
+        <v>11.721174723785829</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="25"/>
-        <v>3.3099545655931766</v>
+        <v>3.274127921426357</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="26"/>
-        <v>3.9691075953098703E-2</v>
+        <v>4.0347453154970722E-2</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="27"/>
-        <v>2.9898055064522571E-2</v>
+        <v>3.0114659541140336E-2</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="28"/>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="30"/>
-        <v>2.4649883727530026</v>
+        <v>2.461397011530869</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="31"/>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="38"/>
-        <v>54.414221201384592</v>
+        <v>53.860587931699932</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="39"/>
@@ -10545,23 +10545,23 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="23"/>
-        <v>24.407401533017175</v>
+        <v>24.325171321576672</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="24"/>
-        <v>12.120356905032342</v>
+        <v>12.079522590503327</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="25"/>
-        <v>3.3089321989586646</v>
+        <v>3.2752657251577366</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="26"/>
-        <v>3.9709642053633323E-2</v>
+        <v>4.0326423292754182E-2</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="27"/>
-        <v>2.9904181877698995E-2</v>
+        <v>3.0107719686608879E-2</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="28"/>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="30"/>
-        <v>2.4948864278175251</v>
+        <v>2.4915116710720091</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="31"/>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="38"/>
-        <v>56.618465687347182</v>
+        <v>56.076982069547753</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="39"/>
@@ -10619,23 +10619,23 @@
       </c>
       <c r="J76" s="2">
         <f t="shared" si="23"/>
-        <v>25.401052487841547</v>
+        <v>25.320627778762688</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="24"/>
-        <v>12.488280065048803</v>
+        <v>12.448739723497697</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="25"/>
-        <v>3.3079715636715021</v>
+        <v>3.2763350226927033</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="26"/>
-        <v>3.9727095849289559E-2</v>
+        <v>4.0306670738306044E-2</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="27"/>
-        <v>2.9909941630265554E-2</v>
+        <v>3.0101201343640995E-2</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="28"/>
@@ -10647,7 +10647,7 @@
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="30"/>
-        <v>2.524790609695224</v>
+        <v>2.5216193907586177</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="31"/>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="38"/>
-        <v>58.913029301382856</v>
+        <v>58.383428866303092</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="39"/>
@@ -10693,23 +10693,23 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="23"/>
-        <v>26.435308277199848</v>
+        <v>26.356649394819865</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="24"/>
-        <v>12.867445940924439</v>
+        <v>12.829158552474691</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="25"/>
-        <v>3.3070689276735017</v>
+        <v>3.2773399328534447</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="26"/>
-        <v>3.9743503570200386E-2</v>
+        <v>4.0288117387473385E-2</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="27"/>
-        <v>2.9915356178166128E-2</v>
+        <v>3.0095078737866217E-2</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="28"/>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="30"/>
-        <v>2.5547005513254901</v>
+        <v>2.5517205921022592</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="31"/>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="38"/>
-        <v>61.301589981518795</v>
+        <v>60.783612091229024</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="39"/>
@@ -10767,23 +10767,23 @@
       </c>
       <c r="J78" s="2">
         <f t="shared" si="23"/>
-        <v>27.511824869446176</v>
+        <v>27.434893012739625</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="24"/>
-        <v>13.258195738373429</v>
+        <v>13.22112158500221</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="25"/>
-        <v>3.3062207850778766</v>
+        <v>3.2782843275144899</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="26"/>
-        <v>3.9758927550624545E-2</v>
+        <v>4.0270689973353674E-2</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="27"/>
-        <v>2.9920446091706101E-2</v>
+        <v>3.0089327691206712E-2</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="28"/>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="30"/>
-        <v>2.5846159075036561</v>
+        <v>2.5818156708401254</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="31"/>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="38"/>
-        <v>63.787975950588219</v>
+        <v>63.281365671868862</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="39"/>
@@ -10841,23 +10841,23 @@
       </c>
       <c r="J79" s="2">
         <f t="shared" si="23"/>
-        <v>28.632325837782862</v>
+        <v>28.557083060840981</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="24"/>
-        <v>13.660881090938775</v>
+        <v>13.624981715017357</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="25"/>
-        <v>3.3054238423993634</v>
+        <v>3.2791718463275532</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="26"/>
-        <v>3.9773426452540797E-2</v>
+        <v>4.0254319759523677E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="27"/>
-        <v>2.9925230729338462E-2</v>
+        <v>3.0083925520642811E-2</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="28"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="30"/>
-        <v>2.614536353595363</v>
+        <v>2.6119049985313327</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="31"/>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="38"/>
-        <v>66.376171844717476</v>
+        <v>65.880679825187357</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="39"/>
@@ -10915,23 +10915,23 @@
       </c>
       <c r="J80" s="2">
         <f t="shared" si="23"/>
-        <v>29.798605118884229</v>
+        <v>29.725014311851425</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="24"/>
-        <v>14.075864376498215</v>
+        <v>14.041102540666699</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="25"/>
-        <v>3.30467500563004</v>
+        <v>3.2800059105779629</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="26"/>
-        <v>3.9787055477065E-2</v>
+        <v>4.0238942253558951E-2</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="27"/>
-        <v>2.9929728307431451E-2</v>
+        <v>3.0078850943674452E-2</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="28"/>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="30"/>
-        <v>2.6444615843247008</v>
+        <v>2.6419889240519749</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="31"/>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="38"/>
-        <v>69.070325092080807</v>
+        <v>68.585707438931792</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="39"/>
@@ -10989,23 +10989,23 @@
       </c>
       <c r="J81" s="2">
         <f t="shared" si="23"/>
-        <v>31.012529884099923</v>
+        <v>30.940554754554636</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="24"/>
-        <v>14.503519043435167</v>
+        <v>14.469858691767147</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="25"/>
-        <v>3.3039713681080474</v>
+        <v>3.2807897362227267</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="26"/>
-        <v>3.9799866564275518E-2</v>
+        <v>4.0224496939406454E-2</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="27"/>
-        <v>2.9933955966210922E-2</v>
+        <v>3.0074083990004129E-2</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="28"/>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="30"/>
-        <v>2.6743913126321326</v>
+        <v>2.6720677749956496</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="31"/>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="38"/>
-        <v>71.874752552128598</v>
+        <v>71.400770713419021</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="39"/>
@@ -11063,23 +11063,23 @@
       </c>
       <c r="J82" s="2">
         <f t="shared" si="23"/>
-        <v>32.276043527832677</v>
+        <v>32.205648582600503</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="24"/>
-        <v>14.94422994676869</v>
+        <v>14.91163616718314</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="25"/>
-        <v>3.3033101991298288</v>
+        <v>3.2815263461575896</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="26"/>
-        <v>3.9811908582012431E-2</v>
+        <v>4.0210927027284293E-2</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="27"/>
-        <v>2.99379298320641E-2</v>
+        <v>3.0069605919003817E-2</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="28"/>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="30"/>
-        <v>2.7043252685983434</v>
+        <v>2.7021418589856543</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="31"/>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="38"/>
-        <v>74.793947425911711</v>
+        <v>74.330368074371094</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="39"/>
@@ -11137,23 +11137,23 @@
       </c>
       <c r="J83" s="2">
         <f t="shared" si="23"/>
-        <v>33.591168777873754</v>
+        <v>33.522319305261121</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="24"/>
-        <v>15.398393694545801</v>
+        <v>15.366832682424974</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="25"/>
-        <v>3.3026889332596423</v>
+        <v>3.2822185817577711</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="26"/>
-        <v>3.9823227504198852E-2</v>
+        <v>4.0198179219886152E-2</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="27"/>
-        <v>2.9941665076385619E-2</v>
+        <v>3.006539914256243E-2</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="28"/>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="30"/>
-        <v>2.7342631984304075</v>
+        <v>2.7322114649046578</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="31"/>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="38"/>
-        <v>77.832586448558729</v>
+        <v>77.379181367856845</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="39"/>
@@ -11211,23 +11211,23 @@
       </c>
       <c r="J84" s="2">
         <f t="shared" si="23"/>
-        <v>34.960010932673683</v>
+        <v>34.892672985111027</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="24"/>
-        <v>15.866419004808348</v>
+        <v>15.83585802778204</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="25"/>
-        <v>3.3021051602930775</v>
+        <v>3.2828691137346313</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="26"/>
-        <v>3.9833866579211091E-2</v>
+        <v>4.0186203493761383E-2</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="27"/>
-        <v>2.9945175971139659E-2</v>
+        <v>3.0061447152941255E-2</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="28"/>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="30"/>
-        <v>2.7642048635067935</v>
+        <v>2.7622768640472204</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="31"/>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="38"/>
-        <v>80.995537375414571</v>
+        <v>80.552083348847802</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="39"/>
@@ -11285,23 +11285,23 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" si="23"/>
-        <v>36.384761230729289</v>
+        <v>36.318901607812805</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="24"/>
-        <v>16.348727073456182</v>
+        <v>16.319134437313966</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="25"/>
-        <v>3.3015566158340386</v>
+        <v>3.2834804523480958</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="26"/>
-        <v>3.9843866488806223E-2</v>
+        <v>4.017495289482742E-2</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="27"/>
-        <v>2.9948475941306053E-2</v>
+        <v>3.0057734455293049E-2</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="28"/>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="30"/>
-        <v>2.7941500394779331</v>
+        <v>2.7923383112001621</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="31"/>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="38"/>
-        <v>84.287866773818806</v>
+        <v>83.854145475367645</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="39"/>
@@ -11359,23 +11359,23 @@
       </c>
       <c r="J86" s="2">
         <f t="shared" si="23"/>
-        <v>37.86770035747962</v>
+        <v>37.803286589401324</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="24"/>
-        <v>16.845751953338311</v>
+        <v>16.817096969032868</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="25"/>
-        <v>3.3010411724472433</v>
+        <v>3.2840549570125055</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="26"/>
-        <v>3.985326549809412E-2</v>
+        <v>4.0164383347049054E-2</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="27"/>
-        <v>2.9951577614371058E-2</v>
+        <v>3.0054246504526188E-2</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="28"/>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="30"/>
-        <v>2.8240985154192391</v>
+        <v>2.8223960456554549</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="31"/>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="38"/>
-        <v>87.71484813299169</v>
+        <v>87.290646020703235</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="39"/>
@@ -11433,23 +11433,23 @@
       </c>
       <c r="J87" s="2">
         <f t="shared" si="23"/>
-        <v>39.411202095322771</v>
+        <v>39.348202426678952</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="24"/>
-        <v>17.357940944913469</v>
+        <v>17.330193896619342</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="25"/>
-        <v>3.3005568313506775</v>
+        <v>3.2845948453313407</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="26"/>
-        <v>3.9862099597021999E-2</v>
+        <v>4.015445347339168E-2</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="27"/>
-        <v>2.9954492867017259E-2</v>
+        <v>3.0050969646219252E-2</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="28"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="30"/>
-        <v>2.8540500930336101</v>
+        <v>2.8524502921599812</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="31"/>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="38"/>
-        <v>91.281970305004492</v>
+        <v>90.867078516654644</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="39"/>
@@ -11507,23 +11507,23 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="23"/>
-        <v>41.017737122595243</v>
+        <v>40.956120496563592</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="24"/>
-        <v>17.885754998832176</v>
+        <v>17.858887113025535</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="25"/>
-        <v>3.3001017146146947</v>
+        <v>3.2851022015943472</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="26"/>
-        <v>3.9870402633818844E-2</v>
+        <v>4.0145124428220588E-2</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="27"/>
-        <v>2.9957232869160216E-2</v>
+        <v>3.0047891061312792E-2</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="28"/>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="30"/>
-        <v>2.884004585900628</v>
+        <v>2.8825012618062003</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="31"/>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="38"/>
-        <v>94.994946290341375</v>
+        <v>94.589160541331594</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="39"/>
@@ -11581,23 +11581,23 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="23"/>
-        <v>42.689876967593371</v>
+        <v>42.629613010469647</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="24"/>
-        <v>18.429669130802917</v>
+        <v>18.403652546329127</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="25"/>
-        <v>3.2996740578365453</v>
+        <v>3.2855789847686059</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="26"/>
-        <v>3.9878206440828082E-2</v>
+        <v>4.013635974037906E-2</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="27"/>
-        <v>2.9959808125473265E-2</v>
+        <v>3.0044998714325089E-2</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="28"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="30"/>
-        <v>2.913961818769788</v>
+        <v>2.9125491528675131</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="31"/>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="38"/>
-        <v>98.859722382110803</v>
+        <v>98.46284286555516</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="39"/>
@@ -11655,23 +11655,23 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="23"/>
-        <v>44.430298123964739</v>
+        <v>44.371357130049788</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="24"/>
-        <v>18.990172849116206</v>
+        <v>18.964980588213056</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="25"/>
-        <v>3.2992722032610802</v>
+        <v>3.286027036013345</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="26"/>
-        <v>3.9885540953136733E-2</v>
+        <v>4.0128125166233708E-2</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="27"/>
-        <v>2.996222851453512E-2</v>
+        <v>3.0042281304857123E-2</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="28"/>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="30"/>
-        <v>2.9439216268952615</v>
+        <v>2.9425941515818388</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="31"/>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="38"/>
-        <v>102.88248768353921</v>
+        <v>102.49431897249787</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="39"/>
@@ -11729,23 +11729,23 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="23"/>
-        <v>46.241786334055291</v>
+        <v>46.184139250883959</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="24"/>
-        <v>19.567770595211442</v>
+        <v>19.543376535457117</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="25"/>
-        <v>3.2988945933202025</v>
+        <v>3.2864480857465401</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="26"/>
-        <v>3.9892434320391787E-2</v>
+        <v>4.0120388552025987E-2</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="27"/>
-        <v>2.9964503325729287E-2</v>
+        <v>3.0039728222168573E-2</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="28"/>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="30"/>
-        <v>2.9738838554097962</v>
+        <v>2.9726364328866954</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="31"/>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="38"/>
-        <v>107.06968401397646</v>
+        <v>106.69003496579238</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="39"/>
@@ -11803,23 +11803,23 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="23"/>
-        <v>48.127241047067265</v>
+        <v>48.070859460970738</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="24"/>
-        <v>20.162982197683586</v>
+        <v>20.139361044839408</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="25"/>
-        <v>3.2985397645653558</v>
+        <v>3.2868437602897562</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="26"/>
-        <v>3.989891301217427E-2</v>
+        <v>4.0113119704916253E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="27"/>
-        <v>2.9966641294017507E-2</v>
+        <v>3.0037329502622362E-2</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="28"/>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="30"/>
-        <v>3.0038483587355262</v>
+        <v>3.0026761611088646</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="31"/>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="38"/>
-        <v>111.42801621926502</v>
+        <v>111.05669988196124</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="39"/>
@@ -11877,23 +11877,23 @@
       </c>
       <c r="J93" s="2">
         <f t="shared" si="23"/>
-        <v>50.089680059161623</v>
+        <v>50.034536181155111</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="24"/>
-        <v>20.776343340138101</v>
+        <v>20.753470601857149</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="25"/>
-        <v>3.2982063419689589</v>
+        <v>3.2872155881161564</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="26"/>
-        <v>3.9905001917285354E-2</v>
+        <v>4.0106290272149805E-2</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="27"/>
-        <v>2.9968650632704166E-2</v>
+        <v>3.0035075789809434E-2</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="28"/>
@@ -11905,7 +11905,7 @@
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="30"/>
-        <v>3.0338150000295436</v>
+        <v>3.0327134906114872</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="31"/>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="38"/>
-        <v>115.96446290297132</v>
+        <v>115.60129642366678</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="39"/>
@@ -11951,23 +11951,23 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="23"/>
-        <v>52.132244342931557</v>
+        <v>52.078310994919292</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="24"/>
-        <v>21.408406043315971</v>
+        <v>21.386258003689541</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="25"/>
-        <v>3.2978930335721595</v>
+        <v>3.2875650057251504</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="26"/>
-        <v>3.9910724437280706E-2</v>
+        <v>4.009987362781417E-2</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="27"/>
-        <v>2.9970539064302634E-2</v>
+        <v>3.0032958297178676E-2</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="28"/>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="30"/>
-        <v>3.0637836506622476</v>
+        <v>3.0627485664012961</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="31"/>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="38"/>
-        <v>120.68628759565169</v>
+        <v>120.33109213095454</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="39"/>
@@ -12025,23 +12025,23 @@
       </c>
       <c r="J95" s="2">
         <f t="shared" si="23"/>
-        <v>54.25820307397467</v>
+        <v>54.205453675264842</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="24"/>
-        <v>22.059739161922426</v>
+        <v>22.038292856837451</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="25"/>
-        <v>3.2975986254577201</v>
+        <v>3.2878933631657983</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="26"/>
-        <v>3.9916102574572232E-2</v>
+        <v>4.0093844766694017E-2</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="27"/>
-        <v>2.9972313849608835E-2</v>
+        <v>3.0030968773009026E-2</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="28"/>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="30"/>
-        <v>3.0937541897265501</v>
+        <v>3.0927815246984749</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="31"/>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="38"/>
-        <v>125.60105038002622</v>
+        <v>125.25365100836365</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="39"/>
@@ -12099,23 +12099,23 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="23"/>
-        <v>56.470958862608292</v>
+        <v>56.419367416730282</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="24"/>
-        <v>22.730928896607004</v>
+        <v>22.710162089888186</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="25"/>
-        <v>3.2973219770281572</v>
+        <v>3.2882019292298073</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="26"/>
-        <v>3.9921157015401207E-2</v>
+        <v>4.0088180204763763E-2</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="27"/>
-        <v>2.9973981815082398E-2</v>
+        <v>3.002909946757204E-2</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="28"/>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="30"/>
-        <v>3.1237265035761599</v>
+        <v>3.1228124934714847</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="31"/>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="38"/>
-        <v>130.71661999066345</v>
+        <v>130.37684562650807</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="39"/>
@@ -12173,23 +12173,23 @@
       </c>
       <c r="J97" s="2">
         <f t="shared" si="23"/>
-        <v>58.774053199099711</v>
+        <v>58.723594280916593</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="24"/>
-        <v>23.422579321555673</v>
+        <v>23.402470481867176</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="25"/>
-        <v>3.2970620165704689</v>
+        <v>3.2884918963337229</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="26"/>
-        <v>3.9925907207970554E-2</v>
+        <v>4.0082857885889819E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="27"/>
-        <v>2.9975549378630281E-2</v>
+        <v>3.0027343102343639E-2</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="28"/>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="30"/>
-        <v>3.1537004853912416</v>
+        <v>3.1528415929390565</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="31"/>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="38"/>
-        <v>136.04118640753799</v>
+        <v>135.70886971749169</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="39"/>
@@ -12247,23 +12247,23 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="23"/>
-        <v>61.171172121126091</v>
+        <v>61.121820864235296</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="24"/>
-        <v>24.135312928170386</v>
+        <v>24.115841206652622</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="25"/>
-        <v>3.2968177370899534</v>
+        <v>3.2887643851087849</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="26"/>
-        <v>3.9930371436008957E-2</v>
+        <v>4.0077857094343264E-2</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="27"/>
-        <v>2.9977022573882954E-2</v>
+        <v>3.0025692841133277E-2</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="28"/>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="30"/>
-        <v>3.183676034769872</v>
+        <v>3.1828689360414</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="31"/>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="38"/>
-        <v>141.58327396361386</v>
+        <v>141.25825128431009</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="39"/>
@@ -12321,23 +12321,23 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="23"/>
-        <v>63.666152112531975</v>
+        <v>63.617884196947522</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="24"/>
-        <v>24.869771185324954</v>
+        <v>24.850916393942931</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="25"/>
-        <v>3.2965881923967064</v>
+        <v>3.2890204487158439</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="26"/>
-        <v>3.9934566888026421E-2</v>
+        <v>4.0073158372750911E-2</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="27"/>
-        <v>2.9978407073048718E-2</v>
+        <v>3.00241422630078E-2</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="28"/>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="30"/>
-        <v>3.2136530573437554</v>
+        <v>3.2128946288825335</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="31"/>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="38"/>
-        <v>147.35175498742879</v>
+        <v>147.03386624521559</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="39"/>
@@ -12395,23 +12395,23 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="23"/>
-        <v>66.262986242825448</v>
+        <v>66.21577788293483</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="24"/>
-        <v>25.626615116702109</v>
+        <v>25.608357707282405</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="25"/>
-        <v>3.296372493429387</v>
+        <v>3.2892610769016919</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="26"/>
-        <v>3.9938509722505358E-2</v>
+        <v>4.0068743445137389E-2</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="27"/>
-        <v>2.9979708208426766E-2</v>
+        <v>3.0022685336895338E-2</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="28"/>
@@ -12423,7 +12423,7 @@
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="30"/>
-        <v>3.2436314644168043</v>
+        <v>3.2429187711455412</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="31"/>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="38"/>
-        <v>153.35586400251057</v>
+        <v>153.04495263487689</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="39"/>
@@ -12468,24 +12468,24 @@
         <v>2.6116964734230907</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" ref="J101:J132" si="41">G101^B101*(H101*I101)^(1-B101)</f>
-        <v>68.9658305572367</v>
+        <f t="shared" ref="J101:J104" si="41">G101^B101*(H101*I101)^(1-B101)</f>
+        <v>68.91965849002645</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" ref="K101:K132" si="42">J101/I101</f>
-        <v>26.4065258957312</v>
+        <f t="shared" ref="K101:K104" si="42">J101/I101</f>
+        <v>26.38884693966563</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="25"/>
-        <v>3.2961698048017944</v>
+        <v>3.2894871998122195</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" ref="M101:M132" si="43">C101*(1/L101)^(1-B101)-E101</f>
-        <v>3.9942215129259981E-2</v>
+        <f t="shared" ref="M101:M104" si="43">C101*(1/L101)^(1-B101)-E101</f>
+        <v>4.0064595144734733E-2</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" ref="N101:N132" si="44">B101*(M101-F101-D101)+F101</f>
-        <v>2.9980930992655794E-2</v>
+        <f t="shared" ref="N101:N104" si="44">B101*(M101-F101-D101)+F101</f>
+        <v>3.0021316397762461E-2</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="28"/>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="30"/>
-        <v>3.2736111726252308</v>
+        <v>3.2729414564824371</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="31"/>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="38"/>
-        <v>159.60521250634821</v>
+        <v>159.30112538505682</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="39"/>
@@ -12543,23 +12543,23 @@
       </c>
       <c r="J102" s="2">
         <f t="shared" si="41"/>
-        <v>71.779010727565378</v>
+        <v>71.733852201108547</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="42"/>
-        <v>27.210205458662223</v>
+        <v>27.193086627256694</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="25"/>
-        <v>3.2959793415586871</v>
+        <v>3.2896996915768884</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="43"/>
-        <v>3.9945697387183315E-2</v>
+        <v>4.0060697346256835E-2</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="44"/>
-        <v>2.9982080137770494E-2</v>
+        <v>3.0020030124264754E-2</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="28"/>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="30"/>
-        <v>3.3035921036178868</v>
+        <v>3.3029627728801993</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="31"/>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="38"/>
-        <v>166.10980435256755</v>
+        <v>165.81239170845876</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="39"/>
@@ -12617,23 +12617,23 @@
       </c>
       <c r="J103" s="2">
         <f t="shared" si="41"/>
-        <v>74.707028974459206</v>
+        <v>74.662861736659195</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="42"/>
-        <v>28.038377136327927</v>
+        <v>28.021800681775971</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="25"/>
-        <v>3.2958003661281112</v>
+        <v>3.2898993736781752</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="43"/>
-        <v>3.9948969918589233E-2</v>
+        <v>4.0057034902356278E-2</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="44"/>
-        <v>2.9983160073134445E-2</v>
+        <v>3.0018821517777572E-2</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="28"/>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="30"/>
-        <v>3.3335741837556578</v>
+        <v>3.3329828030044641</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="31"/>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="38"/>
-        <v>172.88005176092668</v>
+        <v>172.58916711035718</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="39"/>
@@ -12691,23 +12691,23 @@
       </c>
       <c r="J104" s="2">
         <f t="shared" si="41"/>
-        <v>77.754571272201346</v>
+        <v>77.71137355978594</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="42"/>
-        <v>28.891786305162697</v>
+        <v>28.875735042123658</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="25"/>
-        <v>3.2956321854582877</v>
+        <v>3.2900870181188058</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="43"/>
-        <v>3.9952045340346201E-2</v>
+        <v>4.0053593584000152E-2</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="44"/>
-        <v>2.9984174962314245E-2</v>
+        <v>3.0017685882720049E-2</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="28"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="30"/>
-        <v>3.3635573438287918</v>
+        <v>3.3630016245222416</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="31"/>
@@ -12735,7 +12735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7951EA-85F2-6E40-9B21-3826563E3D7C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/solow/solowmodel.xlsx
+++ b/solow/solowmodel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Library/CloudStorage/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817AF4E-5FCB-7541-BDE3-FF47F8772EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293198ED-C679-2D47-B884-CFE26D1BAF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="34500" windowHeight="22600" xr2:uid="{766A9E66-545D-034F-944F-E69BE052E8C3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{766A9E66-545D-034F-944F-E69BE052E8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Solow Model" sheetId="1" r:id="rId1"/>
@@ -324,271 +324,271 @@
                   <c:v>0.6122879348726149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64759730002666827</c:v>
+                  <c:v>0.68260666518072155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68253130428097986</c:v>
+                  <c:v>0.74742203852114553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71712009356025375</c:v>
+                  <c:v>0.80783453714859277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7513909102980616</c:v>
+                  <c:v>0.86464756514890673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78536843771299936</c:v>
+                  <c:v>0.91846634532574722</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81907509455163563</c:v>
+                  <c:v>0.96975857603455273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8525312886583255</c:v>
+                  <c:v>1.0188933969397016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88575563612620811</c:v>
+                  <c:v>1.0661673903410134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91876515152149019</c:v>
+                  <c:v>1.1118224924562543</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95157541367383869</c:v>
+                  <c:v>1.1560586701636979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98420071072923299</c:v>
+                  <c:v>1.1990431045512626</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0166541675227505</c:v>
+                  <c:v>1.2409169802938136</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0489478578132234</c:v>
+                  <c:v>1.2818005954325733</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0810929035033201</c:v>
+                  <c:v>1.3217972684202479</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1130995626272351</c:v>
+                  <c:v>1.3609963680613917</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1449773076082193</c:v>
+                  <c:v>1.3994756933011263</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1767348950574741</c:v>
+                  <c:v>1.4373033639662955</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2083804281949277</c:v>
+                  <c:v>1.4745393387243024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2399214128135971</c:v>
+                  <c:v>1.511236645430891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2713648075766011</c:v>
+                  <c:v>1.5474423871160867</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.302717069324711</c:v>
+                  <c:v>1.5831985711669996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3339841939787307</c:v>
+                  <c:v>1.6185427978797142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3651717535419732</c:v>
+                  <c:v>1.6535088361838572</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3962849296410604</c:v>
+                  <c:v>1.6881271081202871</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4273285439863248</c:v>
+                  <c:v>1.7224250989743364</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4583070860844205</c:v>
+                  <c:v>1.7564277064148384</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4892247384941473</c:v>
+                  <c:v>1.7901575392665732</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5200853998807498</c:v>
+                  <c:v>1.8236351744386439</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5508927060931719</c:v>
+                  <c:v>1.8568793788902833</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5816500494621872</c:v>
+                  <c:v>1.8899073022265278</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6123605964943142</c:v>
+                  <c:v>1.9227346444962545</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6430273041164638</c:v>
+                  <c:v>1.9553758029526451</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6736529346088755</c:v>
+                  <c:v>1.9878440008847993</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7042400693487574</c:v>
+                  <c:v>2.0201514011039099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7347911214737592</c:v>
+                  <c:v>2.0523092062412815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.765308347562824</c:v>
+                  <c:v>2.0843277476679942</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.795793858421715</c:v>
+                  <c:v>2.1162165645611117</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8262496290515604</c:v>
+                  <c:v>2.1479844744067038</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8566775078708067</c:v>
+                  <c:v>2.1796396360357475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8870792252539721</c:v>
+                  <c:v>2.2111896061275575</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.91745640144437</c:v>
+                  <c:v>2.2426413899806459</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9478105538924724</c:v>
+                  <c:v>2.2740014872380061</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9781431040666606</c:v>
+                  <c:v>2.3052759331587853</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0084553837787595</c:v>
+                  <c:v>2.3364703359480905</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0387486410628322</c:v>
+                  <c:v>2.3675899105886962</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0690240456422382</c:v>
+                  <c:v>2.3986395095605966</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0992826940168192</c:v>
+                  <c:v>2.4296236507850439</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1295256141992782</c:v>
+                  <c:v>2.4605465430875064</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.159753770127292</c:v>
+                  <c:v>2.4914121094377748</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1899680657756306</c:v>
+                  <c:v>2.5222240081942298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2201693489904928</c:v>
+                  <c:v>2.5529856525524175</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2503584150664429</c:v>
+                  <c:v>2.583700228374735</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2805360100846284</c:v>
+                  <c:v>2.6143707105578446</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.3107028340294677</c:v>
+                  <c:v>2.6449998780768142</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3408595436996009</c:v>
+                  <c:v>2.6755903278296644</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3710067554276564</c:v>
+                  <c:v>2.7061444873925624</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.4011450476222387</c:v>
+                  <c:v>2.7366646267841701</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4312749631445247</c:v>
+                  <c:v>2.7671528693273051</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.461397011530869</c:v>
+                  <c:v>2.7976112016870047</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4915116710720091</c:v>
+                  <c:v>2.8280414831560492</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5216193907586177</c:v>
+                  <c:v>2.8584454542519242</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5517205921022592</c:v>
+                  <c:v>2.8888247446829176</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.5818156708401254</c:v>
+                  <c:v>2.9191808807354716</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.6119049985313327</c:v>
+                  <c:v>2.9495152921299663</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6419889240519749</c:v>
+                  <c:v>2.9798293183876869</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6720677749956496</c:v>
+                  <c:v>3.0101242147477865</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.7021418589856543</c:v>
+                  <c:v>3.0404011576695358</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.7322114649046578</c:v>
+                  <c:v>3.0706612499519923</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7622768640472204</c:v>
+                  <c:v>3.1009055255003957</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7923383112001621</c:v>
+                  <c:v>3.1311349537660291</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.8223960456554549</c:v>
+                  <c:v>3.1613504438840248</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8524502921599812</c:v>
+                  <c:v>3.1915528485314946</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.8825012618062003</c:v>
+                  <c:v>3.2217429675265188</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.9125491528675131</c:v>
+                  <c:v>3.2519215511868262</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.9425941515818388</c:v>
+                  <c:v>3.2820893034654754</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.9726364328866954</c:v>
+                  <c:v>3.3122468848794515</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0026761611088646</c:v>
+                  <c:v>3.3423949152458325</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0327134906114872</c:v>
+                  <c:v>3.3725339762390361</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0627485664012961</c:v>
+                  <c:v>3.4026646137816083</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0927815246984749</c:v>
+                  <c:v>3.4327873402800555</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.1228124934714847</c:v>
+                  <c:v>3.4629026367163633</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1528415929390565</c:v>
+                  <c:v>3.4930109546050225</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.1828689360414</c:v>
+                  <c:v>3.5231127178246986</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2128946288825335</c:v>
+                  <c:v>3.5532083243329535</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2429187711455412</c:v>
+                  <c:v>3.5832981477718588</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2729414564824371</c:v>
+                  <c:v>3.6133825389717558</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.3029627728801993</c:v>
+                  <c:v>3.6434618273599044</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3329828030044641</c:v>
+                  <c:v>3.6735363222802824</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.3630016245222416</c:v>
+                  <c:v>3.7036063142303473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,274 +664,274 @@
                   <c:v>0.66329483545054491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69329483545054493</c:v>
+                  <c:v>1.0346956855770852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72329483545054507</c:v>
+                  <c:v>1.0646956855770853</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75329483545054499</c:v>
+                  <c:v>1.0946956855770853</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78329483545054535</c:v>
+                  <c:v>1.1246956855770855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81329483545054526</c:v>
+                  <c:v>1.1546956855770856</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8432948354505454</c:v>
+                  <c:v>1.1846956855770858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.87329483545054543</c:v>
+                  <c:v>1.2146956855770858</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.90329483545054556</c:v>
+                  <c:v>1.2446956855770859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9332948354505457</c:v>
+                  <c:v>1.2746956855770859</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96329483545054584</c:v>
+                  <c:v>1.3046956855770862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99329483545054587</c:v>
+                  <c:v>1.3346956855770862</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.023294835450546</c:v>
+                  <c:v>1.3646956855770864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0532948354505463</c:v>
+                  <c:v>1.3946956855770865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0832948354505461</c:v>
+                  <c:v>1.4246956855770867</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1132948354505463</c:v>
+                  <c:v>1.4546956855770867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1432948354505463</c:v>
+                  <c:v>1.4846956855770868</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1732948354505464</c:v>
+                  <c:v>1.5146956855770866</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2032948354505466</c:v>
+                  <c:v>1.544695685577087</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2332948354505466</c:v>
+                  <c:v>1.5746956855770871</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2632948354505467</c:v>
+                  <c:v>1.6046956855770871</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2932948354505469</c:v>
+                  <c:v>1.6346956855770871</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3232948354505469</c:v>
+                  <c:v>1.6646956855770871</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.353294835450547</c:v>
+                  <c:v>1.6946956855770874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3832948354505472</c:v>
+                  <c:v>1.7246956855770874</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4132948354505472</c:v>
+                  <c:v>1.7546956855770877</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4432948354505473</c:v>
+                  <c:v>1.7846956855770877</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4732948354505475</c:v>
+                  <c:v>1.8146956855770877</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5032948354505475</c:v>
+                  <c:v>1.844695685577088</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5332948354505476</c:v>
+                  <c:v>1.874695685577088</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5632948354505476</c:v>
+                  <c:v>1.904695685577088</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5932948354505476</c:v>
+                  <c:v>1.934695685577088</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6232948354505479</c:v>
+                  <c:v>1.9646956855770881</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6532948354505479</c:v>
+                  <c:v>1.9946956855770883</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6832948354505479</c:v>
+                  <c:v>2.0246956855770883</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7132948354505479</c:v>
+                  <c:v>2.0546956855770881</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7432948354505482</c:v>
+                  <c:v>2.0846956855770884</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7732948354505482</c:v>
+                  <c:v>2.1146956855770886</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8032948354505483</c:v>
+                  <c:v>2.1446956855770889</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8332948354505485</c:v>
+                  <c:v>2.1746956855770887</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8632948354505485</c:v>
+                  <c:v>2.2046956855770889</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8932948354505488</c:v>
+                  <c:v>2.2346956855770892</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9232948354505486</c:v>
+                  <c:v>2.264695685577089</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9532948354505486</c:v>
+                  <c:v>2.2946956855770888</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9832948354505489</c:v>
+                  <c:v>2.3246956855770895</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0132948354505489</c:v>
+                  <c:v>2.3546956855770893</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0432948354505491</c:v>
+                  <c:v>2.3846956855770896</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0732948354505494</c:v>
+                  <c:v>2.4146956855770894</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1032948354505492</c:v>
+                  <c:v>2.4446956855770896</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1332948354505494</c:v>
+                  <c:v>2.4746956855770899</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1632948354505497</c:v>
+                  <c:v>2.5046956855770901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1932948354505495</c:v>
+                  <c:v>2.5346956855770899</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2232948354505497</c:v>
+                  <c:v>2.5646956855770902</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.25329483545055</c:v>
+                  <c:v>2.5946956855770904</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2832948354505498</c:v>
+                  <c:v>2.6246956855770902</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.31329483545055</c:v>
+                  <c:v>2.6546956855770905</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3432948354505498</c:v>
+                  <c:v>2.6846956855770903</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3732948354505501</c:v>
+                  <c:v>2.7146956855770905</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.4032948354505503</c:v>
+                  <c:v>2.7446956855770908</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4332948354505506</c:v>
+                  <c:v>2.7746956855770906</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4632948354505504</c:v>
+                  <c:v>2.8046956855770908</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4932948354505506</c:v>
+                  <c:v>2.8346956855770911</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5232948354505504</c:v>
+                  <c:v>2.8646956855770909</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5532948354505507</c:v>
+                  <c:v>2.8946956855770911</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.5832948354505509</c:v>
+                  <c:v>2.9246956855770914</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.6132948354505507</c:v>
+                  <c:v>2.9546956855770912</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.643294835450551</c:v>
+                  <c:v>2.9846956855770914</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6732948354505508</c:v>
+                  <c:v>3.0146956855770912</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.703294835450551</c:v>
+                  <c:v>3.0446956855770915</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.7332948354505513</c:v>
+                  <c:v>3.0746956855770917</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7632948354505511</c:v>
+                  <c:v>3.1046956855770915</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7932948354505513</c:v>
+                  <c:v>3.1346956855770918</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.8232948354505516</c:v>
+                  <c:v>3.164695685577092</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8532948354505514</c:v>
+                  <c:v>3.1946956855770918</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.8832948354505517</c:v>
+                  <c:v>3.2246956855770921</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.9132948354505519</c:v>
+                  <c:v>3.2546956855770919</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.9432948354505517</c:v>
+                  <c:v>3.2846956855770921</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.9732948354505515</c:v>
+                  <c:v>3.3146956855770919</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0032948354505522</c:v>
+                  <c:v>3.3446956855770922</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.033294835450552</c:v>
+                  <c:v>3.3746956855770924</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0632948354505518</c:v>
+                  <c:v>3.4046956855770922</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0932948354505521</c:v>
+                  <c:v>3.4346956855770925</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.1232948354505523</c:v>
+                  <c:v>3.4646956855770927</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1532948354505526</c:v>
+                  <c:v>3.4946956855770925</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.1832948354505524</c:v>
+                  <c:v>3.5246956855770928</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2132948354505526</c:v>
+                  <c:v>3.5546956855770926</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2432948354505524</c:v>
+                  <c:v>3.5846956855770928</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2732948354505527</c:v>
+                  <c:v>3.6146956855770931</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.3032948354505529</c:v>
+                  <c:v>3.6446956855770929</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3332948354505527</c:v>
+                  <c:v>3.6746956855770931</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.363294835450553</c:v>
+                  <c:v>3.7046956855770929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,274 +1328,274 @@
                   <c:v>3.5718179697524374E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5309365154053349E-2</c:v>
+                  <c:v>7.0318730308106703E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4934004254311375E-2</c:v>
+                  <c:v>6.4815373340423976E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4588789279273835E-2</c:v>
+                  <c:v>6.0412498627447221E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4270816737807838E-2</c:v>
+                  <c:v>5.6813028000313626E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.39775274149378E-2</c:v>
+                  <c:v>5.3818780176840324E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3706656838636002E-2</c:v>
+                  <c:v>5.1292230708805363E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3456194106689756E-2</c:v>
+                  <c:v>4.9134820905148729E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3224347467882685E-2</c:v>
+                  <c:v>4.727399340131197E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3009515395281942E-2</c:v>
+                  <c:v>4.5655102115240598E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2810262152348293E-2</c:v>
+                  <c:v>4.4236177707443584E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2625297055394104E-2</c:v>
+                  <c:v>4.2984434387564593E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2453456793517403E-2</c:v>
+                  <c:v>4.1873875742550741E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.229369029047293E-2</c:v>
+                  <c:v>4.0883615138759828E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2145045690096553E-2</c:v>
+                  <c:v>3.9996672987674134E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2006659123914816E-2</c:v>
+                  <c:v>3.9199099641143868E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1877744980984356E-2</c:v>
+                  <c:v>3.8479325239734574E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1757587449254721E-2</c:v>
+                  <c:v>3.7827670665169302E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1645533137453587E-2</c:v>
+                  <c:v>3.7235974758006538E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1540984618669082E-2</c:v>
+                  <c:v>3.6697306706588495E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1443394763003889E-2</c:v>
+                  <c:v>3.62057416851959E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1352261748109407E-2</c:v>
+                  <c:v>3.5756184050912181E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1267124654020234E-2</c:v>
+                  <c:v>3.5344226712715025E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1187559563242137E-2</c:v>
+                  <c:v>3.4966038304142917E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1113176099087151E-2</c:v>
+                  <c:v>3.4618271936429815E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.1043614345264377E-2</c:v>
+                  <c:v>3.4297990854048964E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0978542098095328E-2</c:v>
+                  <c:v>3.4002607440501938E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0917652409726784E-2</c:v>
+                  <c:v>3.3729832851734858E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0860661386602619E-2</c:v>
+                  <c:v>3.3477635172070225E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0807306212422222E-2</c:v>
+                  <c:v>3.3244204451639524E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0757343369015058E-2</c:v>
+                  <c:v>3.3027923336244644E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0710547032126976E-2</c:v>
+                  <c:v>3.2827342269726577E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.0666707622149278E-2</c:v>
+                  <c:v>3.2641158456390124E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.0625630492412084E-2</c:v>
+                  <c:v>3.246819793215449E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0587134739881422E-2</c:v>
+                  <c:v>3.2307400219110272E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0551052125001917E-2</c:v>
+                  <c:v>3.2157805137371799E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0517226089064563E-2</c:v>
+                  <c:v>3.2018541426712642E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0485510858890827E-2</c:v>
+                  <c:v>3.1888816893117136E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0455770629845256E-2</c:v>
+                  <c:v>3.1767909845591864E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0427878819246447E-2</c:v>
+                  <c:v>3.1655161629044117E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0401717383165161E-2</c:v>
+                  <c:v>3.1549970091809647E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0377176190397929E-2</c:v>
+                  <c:v>3.1451783853088111E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0354152448102131E-2</c:v>
+                  <c:v>3.1360097257360275E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0332550174188174E-2</c:v>
+                  <c:v>3.1274445920778826E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0312279712098652E-2</c:v>
+                  <c:v>3.1194402789305162E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0293257284072672E-2</c:v>
+                  <c:v>3.1119574640605843E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0275404579406046E-2</c:v>
+                  <c:v>3.1049598971900402E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0258648374580879E-2</c:v>
+                  <c:v>3.0984141224446579E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0242920182458648E-2</c:v>
+                  <c:v>3.0922892302463031E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0228155928014078E-2</c:v>
+                  <c:v>3.0865566350268072E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0214295648338274E-2</c:v>
+                  <c:v>3.0811898756454879E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0201283214862248E-2</c:v>
+                  <c:v>3.0761644358187193E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0189066075949844E-2</c:v>
+                  <c:v>3.0714575822317628E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0177595018185521E-2</c:v>
+                  <c:v>3.0670482183109478E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0166823944839508E-2</c:v>
+                  <c:v>3.0629167518969783E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0156709670133387E-2</c:v>
+                  <c:v>3.0590449752849948E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0147211728054797E-2</c:v>
+                  <c:v>3.0554159562898121E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.013829219458268E-2</c:v>
+                  <c:v>3.0520139391607522E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0129915522285246E-2</c:v>
+                  <c:v>3.0488242543134828E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0122048386344226E-2</c:v>
+                  <c:v>3.0458332359699178E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0114659541140336E-2</c:v>
+                  <c:v>3.0430281469044241E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0107719686608879E-2</c:v>
+                  <c:v>3.0403971095875285E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0101201343640995E-2</c:v>
+                  <c:v>3.0379290430993272E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0095078737866217E-2</c:v>
+                  <c:v>3.0356136052553627E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0089327691206712E-2</c:v>
+                  <c:v>3.0334411394494675E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0083925520642811E-2</c:v>
+                  <c:v>3.0314026257720842E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0078850943674452E-2</c:v>
+                  <c:v>3.0294896360099636E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.0074083990004129E-2</c:v>
+                  <c:v>3.0276942921748824E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0069605919003817E-2</c:v>
+                  <c:v>3.0260092282456748E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.006539914256243E-2</c:v>
+                  <c:v>3.0244275548403043E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.0061447152941255E-2</c:v>
+                  <c:v>3.0229428265633365E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0057734455293049E-2</c:v>
+                  <c:v>3.0215490117995611E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.0054246504526188E-2</c:v>
+                  <c:v>3.0202404647469722E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0050969646219252E-2</c:v>
+                  <c:v>3.0190118995023899E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.0047891061312792E-2</c:v>
+                  <c:v>3.0178583660307394E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.0044998714325089E-2</c:v>
+                  <c:v>3.016775227864954E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0042281304857123E-2</c:v>
+                  <c:v>3.0157581413975995E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0039728222168573E-2</c:v>
+                  <c:v>3.0148030366380411E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0037329502622362E-2</c:v>
+                  <c:v>3.0139060993203331E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0035075789809434E-2</c:v>
+                  <c:v>3.0130637542572176E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0032958297178676E-2</c:v>
+                  <c:v>3.0122726498447935E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0030968773009026E-2</c:v>
+                  <c:v>3.0115296436306793E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.002909946757204E-2</c:v>
+                  <c:v>3.0108317888659222E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0027343102343639E-2</c:v>
+                  <c:v>3.0101763219676444E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0025692841133277E-2</c:v>
+                  <c:v>3.0095606508255008E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.00241422630078E-2</c:v>
+                  <c:v>3.0089823438904865E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0022685336895338E-2</c:v>
+                  <c:v>3.0084391199896622E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0021316397762461E-2</c:v>
+                  <c:v>3.0079288388148849E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.0020030124264754E-2</c:v>
+                  <c:v>3.0074494920377264E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.0018821517777572E-2</c:v>
+                  <c:v>3.0069991950065267E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.0017685882720049E-2</c:v>
+                  <c:v>3.0065761789849786E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,271 +2352,271 @@
                   <c:v>2.5762299623893545</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6180141194334841</c:v>
+                  <c:v>2.9110243978880934</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6574515209885377</c:v>
+                  <c:v>3.2349264025942386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6946626244416763</c:v>
+                  <c:v>3.5472237812418399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7297632387164761</c:v>
+                  <c:v>3.8474741347168298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7628644702398937</c:v>
+                  <c:v>4.1354451871467566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7940727167110713</c:v>
+                  <c:v>4.4110682649507194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8234896995072654</c:v>
+                  <c:v>4.6744018257718496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8512125270690873</c:v>
+                  <c:v>4.9256026735284504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.877333782864735</c:v>
+                  <c:v>5.1649030962374676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9019416325851566</c:v>
+                  <c:v>5.39259261127828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9251199461045458</c:v>
+                  <c:v>5.6090033293268737</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9469484304821898</c:v>
+                  <c:v>5.8144981858057072</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9675027709059032</c:v>
+                  <c:v>6.0094614627850849</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9868547770033707</c:v>
+                  <c:v>6.1942911531551461</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0050725323915843</c:v>
+                  <c:v>6.3693928154199932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0222205457092519</c:v>
+                  <c:v>6.5351746406234934</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0383599016935148</c:v>
+                  <c:v>6.6920435089942982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0535484111295896</c:v>
+                  <c:v>6.8404018573464658</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0678407587276042</c:v>
+                  <c:v>6.9806452122727016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0812886481713404</c:v>
+                  <c:v>7.1131602710190975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0939409437441072</c:v>
+                  <c:v>7.2383234333144131</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1058438080721027</c:v>
+                  <c:v>7.3564997045869571</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1170408356391768</c:v>
+                  <c:v>7.468041904867559</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.1275731818220733</c:v>
+                  <c:v>7.5732901289505046</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1374796872747961</c:v>
+                  <c:v>7.672571412601652</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1467969975570051</c:v>
+                  <c:v>7.7661995671772175</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1555596779562642</c:v>
+                  <c:v>7.8544751512688453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1638003234992724</c:v>
+                  <c:v>7.9376855531720025</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1715496641843144</c:v>
+                  <c:v>8.0161051622841448</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1788366654972848</c:v>
+                  <c:v>8.089995611134329</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1856886242978772</c:v>
+                  <c:v>8.1596060727536361</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.192131260181728</c:v>
+                  <c:v>8.2251736006178238</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1981888024392617</c:v>
+                  <c:v>8.286923500512664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2038840727433509</c:v>
+                  <c:v>8.3450697254557173</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2092385637062804</c:v>
+                  <c:v>8.3998152863114246</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.2142725134522681</c:v>
+                  <c:v>8.4513526720039742</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2190049763555342</c:v>
+                  <c:v>8.4998642743029453</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2234538900957883</c:v>
+                  <c:v>8.5455228130604777</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.22763613918347</c:v>
+                  <c:v>8.5884917585421405</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.2315676151063109</c:v>
+                  <c:v>8.6289257481383768</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.235263273247047</c:v>
+                  <c:v>8.6669709952872829</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.2387371867195545</c:v>
+                  <c:v>8.702765688898122</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.2420025972675077</c:v>
+                  <c:v>8.7364403819510876</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.2450719633659699</c:v>
+                  <c:v>8.7681183682733774</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2479570056622613</c:v>
+                  <c:v>8.7979160467635911</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2506687498880891</c:v>
+                  <c:v>8.8259432725641016</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.2532175673703612</c:v>
+                  <c:v>8.8523036948704288</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.2556132132634312</c:v>
+                  <c:v>8.8770950812239526</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2578648626207127</c:v>
+                  <c:v>8.9004096282638887</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2599811444188402</c:v>
+                  <c:v>8.9223342590208219</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2619701736427418</c:v>
+                  <c:v>8.942950906920462</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.2638395815352532</c:v>
+                  <c:v>8.9623367867358255</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.2655965441102355</c:v>
+                  <c:v>8.9805646527812275</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.2672478090235724</c:v>
+                  <c:v>8.9977030446845525</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.2687997208919675</c:v>
+                  <c:v>9.0138165211070884</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.2702582451450999</c:v>
+                  <c:v>9.0289658818044174</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.2716289904925069</c:v>
+                  <c:v>9.0432083784387665</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.2729172300824838</c:v>
+                  <c:v>9.0565979145640974</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.274127921426357</c:v>
+                  <c:v>9.0691852352110338</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.2752657251577366</c:v>
+                  <c:v>9.0810181065002471</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.2763350226927033</c:v>
+                  <c:v>9.0921414857111351</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2773399328534447</c:v>
+                  <c:v>9.1025976822279535</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.2782843275144899</c:v>
+                  <c:v>9.1124265097784161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.2791718463275532</c:v>
+                  <c:v>9.121665430371193</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.2800059105779629</c:v>
+                  <c:v>9.1303496903283214</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2807897362227267</c:v>
+                  <c:v>9.1385124487972185</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.2815263461575896</c:v>
+                  <c:v>9.1461848991148305</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.2822185817577711</c:v>
+                  <c:v>9.1533963833835887</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.2828691137346313</c:v>
+                  <c:v>9.1601745006057662</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.2834804523480958</c:v>
+                  <c:v>9.1665452087092394</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.2840549570125055</c:v>
+                  <c:v>9.1725329207844357</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.2845948453313407</c:v>
+                  <c:v>9.1781605958384009</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.2851022015943472</c:v>
+                  <c:v>9.183449824358938</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2855789847686059</c:v>
+                  <c:v>9.1884209089683058</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.286027036013345</c:v>
+                  <c:v>9.1930929404332513</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2864480857465401</c:v>
+                  <c:v>9.1974838692854348</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.2868437602897562</c:v>
+                  <c:v>9.2016105732941202</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.2872155881161564</c:v>
+                  <c:v>9.2054889210210789</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2875650057251504</c:v>
+                  <c:v>9.2091338316762172</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.2878933631657983</c:v>
+                  <c:v>9.2125593314812768</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2882019292298073</c:v>
+                  <c:v>9.2157786067384269</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.2884918963337229</c:v>
+                  <c:v>9.2188040537902083</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.2887643851087849</c:v>
+                  <c:v>9.221647326047524</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2890204487158439</c:v>
+                  <c:v>9.224319378253055</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2892610769016919</c:v>
+                  <c:v>9.2268305081383772</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2894871998122195</c:v>
+                  <c:v>9.2291903956245882</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.2896996915768884</c:v>
+                  <c:v>9.2314081397080532</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.2898993736781752</c:v>
+                  <c:v>9.2334922931651455</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.2900870181188058</c:v>
+                  <c:v>9.235450895202348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,274 +2692,274 @@
                   <c:v>3.2930116186270708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.2930116186270708</c:v>
+                  <c:v>9.2659886524959028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,9 +4959,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4999,7 +4999,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5105,7 +5105,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5247,7 +5247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5259,7 +5259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6076,8 +6076,7 @@
         <v>0.33</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="11"/>
@@ -6117,19 +6116,19 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>5.6088985315313186E-2</v>
+        <v>0.16217797063062639</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>3.5309365154053349E-2</v>
+        <v>7.0318730308106703E-2</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>2.0002953315842391</v>
+        <v>2.8142496885309538</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -6137,7 +6136,7 @@
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.69329483545054493</v>
+        <v>1.0346956855770852</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -6151,7 +6150,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="11"/>
@@ -6167,7 +6166,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="14"/>
-        <v>4.065009421408968</v>
+        <v>4.5199685958634559</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="15"/>
@@ -6179,39 +6178,39 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2.1331447514377881</v>
+        <v>2.2091474352206264</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>1.9109438838666009</v>
+        <v>1.9790296823734155</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>2.6180141194334841</v>
+        <v>2.9110243978880934</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>5.4951528043367809E-2</v>
+        <v>0.14550113133461812</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>3.4934004254311375E-2</v>
+        <v>6.4815373340423976E-2</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>2.0612133936770327</v>
+        <v>2.8999563512239939</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>0.64759730002666827</v>
+        <v>0.68260666518072155</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.72329483545054507</v>
+        <v>1.0646956855770853</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -6225,7 +6224,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="11"/>
@@ -6241,7 +6240,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="14"/>
-        <v>4.294639378138144</v>
+        <v>5.2278817522104886</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="15"/>
@@ -6253,39 +6252,39 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>2.2311815858704613</v>
+        <v>2.38076541404704</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>1.9788805465355124</v>
+        <v>2.1115495007477079</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>2.6574515209885377</v>
+        <v>3.2349264025942386</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>5.3905422058405567E-2</v>
+        <v>0.13215908674984006</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>3.4588789279273835E-2</v>
+        <v>6.0412498627447221E-2</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>2.1239866869602135</v>
+        <v>2.9882731703860621</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>0.68253130428097986</v>
+        <v>0.74742203852114553</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.75329483545054499</v>
+        <v>1.0946956855770853</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -6299,7 +6298,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="11"/>
@@ -6315,7 +6314,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="14"/>
-        <v>4.5324970409210632</v>
+        <v>5.9665284797182059</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="15"/>
@@ -6327,39 +6326,39 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>2.3329185809361479</v>
+        <v>2.5544438715074507</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>2.0485251466297143</v>
+        <v>2.2430454921137248</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>2.6946626244416763</v>
+        <v>3.5472237812418399</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>5.2941868902448008E-2</v>
+        <v>0.12125160000095038</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>3.4270816737807838E-2</v>
+        <v>5.6813028000313626E-2</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>2.1886717116350618</v>
+        <v>3.0792796371159685</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>0.71712009356025375</v>
+        <v>0.80783453714859277</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.78329483545054535</v>
+        <v>1.1246956855770855</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -6373,7 +6372,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="11"/>
@@ -6389,7 +6388,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="14"/>
-        <v>4.7789214343401536</v>
+        <v>6.7356671632492873</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="15"/>
@@ -6401,39 +6400,39 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>2.4385190548306728</v>
+        <v>2.7309446231386381</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>2.1199466224939605</v>
+        <v>2.3741691985436666</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2.7297632387164761</v>
+        <v>3.8474741347168298</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>5.20531133785994E-2</v>
+        <v>0.11217812174800097</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>3.39775274149378E-2</v>
+        <v>5.3818780176840324E-2</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>2.2553266885901535</v>
+        <v>3.1730576633768899</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>0.7513909102980616</v>
+        <v>0.86464756514890673</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.81329483545054526</v>
+        <v>1.1546956855770856</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -6447,7 +6446,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="11"/>
@@ -6463,7 +6462,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="14"/>
-        <v>5.0342672941550717</v>
+        <v>7.5352724234845487</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="15"/>
@@ -6475,39 +6474,39 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>2.5481521201485915</v>
+        <v>2.910911741454719</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>2.1932148549563184</v>
+        <v>2.5054449545394362</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>2.7628644702398937</v>
+        <v>4.1354451871467566</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>5.1232293450412122E-2</v>
+        <v>0.10452191123880412</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>3.3706656838636002E-2</v>
+        <v>5.1292230708805363E-2</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>2.3240116118040954</v>
+        <v>3.269691655722669</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.78536843771299936</v>
+        <v>0.91846634532574722</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>0.8432948354505454</v>
+        <v>1.1846956855770858</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -6521,7 +6520,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="11"/>
@@ -6537,7 +6536,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="14"/>
-        <v>5.2989054826301842</v>
+        <v>8.3655066217879028</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="15"/>
@@ -6549,39 +6548,39 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.6619930111377115</v>
+        <v>3.0949092246655154</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>2.2684008107124671</v>
+        <v>2.6373076732129563</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>2.7940727167110713</v>
+        <v>4.4110682649507194</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>5.047331547481744E-2</v>
+        <v>9.7984305773177974E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>3.3456194106689756E-2</v>
+        <v>4.9134820905148729E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>2.3947883023441507</v>
+        <v>3.3692685912694058</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>0.81907509455163563</v>
+        <v>0.96975857603455273</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>0.87329483545054543</v>
+        <v>1.2146956855770858</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -6595,7 +6594,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="11"/>
@@ -6611,7 +6610,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="14"/>
-        <v>5.5732234450394271</v>
+        <v>9.2266976753883991</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="15"/>
@@ -6623,39 +6622,39 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>2.7802234124337613</v>
+        <v>3.2834457251484483</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>2.345576675347905</v>
+        <v>2.7701276355115505</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8234896995072654</v>
+        <v>4.6744018257718496</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>4.9770749902674799E-2</v>
+        <v>9.2345434549430214E-2</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3.3224347467882685E-2</v>
+        <v>4.727399340131197E-2</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>2.4677204640093762</v>
+        <v>3.4718780959807383</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>0.8525312886583255</v>
+        <v>1.0188933969397016</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>0.90329483545054556</v>
+        <v>1.2446956855770859</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -6669,7 +6668,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="11"/>
@@ -6685,7 +6684,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="14"/>
-        <v>5.8576257062146153</v>
+        <v>10.119321714933166</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="15"/>
@@ -6697,39 +6696,39 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>2.9030317911700938</v>
+        <v>3.4769914372557977</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>2.4248159779442924</v>
+        <v>2.904227372871838</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>2.8512125270690873</v>
+        <v>4.9256026735284504</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>4.9119743622066503E-2</v>
+        <v>8.7439703379516967E-2</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>3.3009515395281942E-2</v>
+        <v>4.5655102115240598E-2</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>2.5428737406683384</v>
+        <v>3.5776125253372553</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>0.88575563612620811</v>
+        <v>1.0661673903410134</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>0.9332948354505457</v>
+        <v>1.2746956855770859</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -6743,7 +6742,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="11"/>
@@ -6759,7 +6758,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="14"/>
-        <v>6.1525344063318164</v>
+        <v>11.043989471854962</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="15"/>
@@ -6771,39 +6770,39 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.0306137341089379</v>
+        <v>3.6759900305648143</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.5061937088755917</v>
+        <v>3.0398935320603191</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>2.877333782864735</v>
+        <v>5.1649030962374676</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>4.8515945916206962E-2</v>
+        <v>8.313993244679875E-2</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>3.2810262152348293E-2</v>
+        <v>4.4236177707443584E-2</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>2.6203157753430291</v>
+        <v>3.6865670474626664</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>0.91876515152149019</v>
+        <v>1.1118224924562543</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>0.96329483545054584</v>
+        <v>1.3046956855770862</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -6817,7 +6816,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="11"/>
@@ -6833,7 +6832,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="14"/>
-        <v>6.4583898754145137</v>
+        <v>12.001435567085878</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="15"/>
@@ -6845,39 +6844,39 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.163172291247331</v>
+        <v>3.8808673410595538</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>2.5897864321283381</v>
+        <v>3.1773854407414404</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>2.9019416325851566</v>
+        <v>5.39259261127828</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>4.7955445622406376E-2</v>
+        <v>7.934677087140786E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>3.2625297055394104E-2</v>
+        <v>4.2984434387564593E-2</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>2.7001162710921491</v>
+        <v>3.7988397287815348</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>0.95157541367383869</v>
+        <v>1.1560586701636979</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.99329483545054587</v>
+        <v>1.3346956855770862</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -6891,7 +6890,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="11"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="14"/>
-        <v>6.7756512462802538</v>
+        <v>12.992510084707963</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="15"/>
@@ -6919,39 +6918,39 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>3.3009183272002192</v>
+        <v>4.0920378776173205</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>2.6756723932627668</v>
+        <v>3.3169414375098878</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>2.9251199461045458</v>
+        <v>5.6090033293268737</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>4.7434717556113337E-2</v>
+        <v>7.5981441644093164E-2</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>3.2453456793517403E-2</v>
+        <v>4.1873875742550741E-2</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>2.7823470537485688</v>
+        <v>3.9145316222856814</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.98420071072923299</v>
+        <v>1.1990431045512626</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>1.023294835450546</v>
+        <v>1.3646956855770864</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -6965,7 +6964,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="11"/>
@@ -6981,7 +6980,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="14"/>
-        <v>7.1047971058761661</v>
+        <v>14.018171969122374</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="15"/>
@@ -6993,39 +6992,39 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>3.4440708815462187</v>
+        <v>4.3099098192713132</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>2.7639316239560516</v>
+        <v>3.4587836474883051</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>2.9469484304821898</v>
+        <v>5.8144981858057072</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>4.6950576637796768E-2</v>
+        <v>7.298065193563584E-2</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>3.229369029047293E-2</v>
+        <v>4.0883615138759828E-2</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.8670821365674226</v>
+        <v>4.0337468584886969</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>1.0166541675227505</v>
+        <v>1.2409169802938136</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>1.0532948354505463</v>
+        <v>1.3946956855770865</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -7039,7 +7038,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="11"/>
@@ -7055,7 +7054,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="14"/>
-        <v>7.4463261851435147</v>
+        <v>15.079483897259133</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="15"/>
@@ -7067,39 +7066,39 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3.5928575392311748</v>
+        <v>4.5348889476696481</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>2.8546460439266159</v>
+        <v>3.603121652544528</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>2.9675027709059032</v>
+        <v>6.0094614627850849</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>4.6500138454838039E-2</v>
+        <v>7.0292948447497366E-2</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>3.2145045690096553E-2</v>
+        <v>3.9996672987674134E-2</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>2.9543977868430367</v>
+        <v>4.1565927391504331</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>1.0489478578132234</v>
+        <v>1.2818005954325733</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>1.0832948354505461</v>
+        <v>1.4246956855770867</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -7113,7 +7112,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="11"/>
@@ -7129,7 +7128,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="14"/>
-        <v>7.8007580877266918</v>
+        <v>16.177608360051305</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="15"/>
@@ -7141,39 +7140,39 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>3.7475148120556327</v>
+        <v>4.7673818147957414</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>2.9478995609225569</v>
+        <v>3.7501553598603676</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>2.9868547770033707</v>
+        <v>6.1942911531551461</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>4.6080785223984289E-2</v>
+        <v>6.787605951861779E-2</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>3.2006659123914816E-2</v>
+        <v>3.9199099641143868E-2</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>3.0443725945546434</v>
+        <v>4.283179833855832</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>1.0810929035033201</v>
+        <v>1.3217972684202479</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>1.1132948354505463</v>
+        <v>1.4546956855770867</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -7187,7 +7186,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="11"/>
@@ -7203,7 +7202,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="14"/>
-        <v>8.1686340580014445</v>
+        <v>17.313804748473757</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="15"/>
@@ -7215,39 +7214,39 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>3.9082885322204999</v>
+        <v>5.0077983532518209</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>3.0437781693623251</v>
+        <v>3.9000772789762204</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>3.0050725323915843</v>
+        <v>6.3693928154199932</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>4.5690136306013193E-2</v>
+        <v>6.5694924968892662E-2</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>3.1877744980984356E-2</v>
+        <v>3.8479325239734574E-2</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>3.1370875431026644</v>
+        <v>4.4136220795350134</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>1.1130995626272351</v>
+        <v>1.3609963680613917</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1.1432948354505463</v>
+        <v>1.4846956855770868</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -7261,7 +7260,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="11"/>
@@ -7277,7 +7276,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="14"/>
-        <v>8.5505177890434663</v>
+        <v>18.489427285010816</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="15"/>
@@ -7289,39 +7288,39 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>4.0754342588673165</v>
+        <v>5.2565540752990989</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>3.1423700481378347</v>
+        <v>4.0530743556215807</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>3.0222205457092519</v>
+        <v>6.5351746406234934</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>4.5326022573499158E-2</v>
+        <v>6.3720214136876674E-2</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>3.1757587449254721E-2</v>
+        <v>3.7827670665169302E-2</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>3.2326260821992392</v>
+        <v>4.5480368830142037</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>1.1449773076082193</v>
+        <v>1.3994756933011263</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1.1732948354505464</v>
+        <v>1.5146956855770866</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -7335,7 +7334,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="11"/>
@@ -7351,7 +7350,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="14"/>
-        <v>8.9469962712943438</v>
+        <v>19.705923675776273</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="15"/>
@@ -7363,39 +7362,39 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>4.2492176985231893</v>
+        <v>5.5140719656945123</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>3.2437656580258483</v>
+        <v>4.2093294689089067</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>3.0383599016935148</v>
+        <v>6.6920435089942982</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>4.4986464052889669E-2</v>
+        <v>6.1927196236383458E-2</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>3.1645533137453587E-2</v>
+        <v>3.7235974758006538E-2</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>3.3310742029786007</v>
+        <v>4.686545226689808</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>1.1767348950574741</v>
+        <v>1.4373033639662955</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.2032948354505466</v>
+        <v>1.544695685577087</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -7409,7 +7408,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="11"/>
@@ -7425,7 +7424,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="14"/>
-        <v>9.3586806828091866</v>
+        <v>20.964834384701565</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="15"/>
@@ -7437,39 +7436,39 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>4.4299151403435939</v>
+        <v>5.7807841450970834</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>3.3480578391002562</v>
+        <v>4.3690226697294241</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>3.0535484111295896</v>
+        <v>6.8404018573464658</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>4.4669650359603283E-2</v>
+        <v>6.0294868807843918E-2</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>3.1540984618669082E-2</v>
+        <v>3.6697306706588495E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>3.4325205153948968</v>
+        <v>4.8292717774207254</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>1.2083804281949277</v>
+        <v>1.4745393387243024</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>1.2332948354505466</v>
+        <v>1.5746956855770871</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -7483,7 +7482,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="11"/>
@@ -7499,7 +7498,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="14"/>
-        <v>9.7862073220907035</v>
+        <v>22.267792451389809</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="15"/>
@@ -7511,39 +7510,39 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>4.6178139070374229</v>
+        <v>6.0571333610542242</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>3.4553419084937453</v>
+        <v>4.532332218041593</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.0678407587276042</v>
+        <v>6.9806452122727016</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>4.4373923524254219E-2</v>
+        <v>5.8805277833926972E-2</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3.1443394763003889E-2</v>
+        <v>3.62057416851959E-2</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>3.5370563279771341</v>
+        <v>4.9763449987369457</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>1.2399214128135971</v>
+        <v>1.511236645430891</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>1.2632948354505467</v>
+        <v>1.6046956855770871</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -7557,7 +7556,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="11"/>
@@ -7573,7 +7572,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="14"/>
-        <v>10.230238584629681</v>
+        <v>23.616523789947781</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="15"/>
@@ -7585,39 +7584,39 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>4.8132128223565021</v>
+        <v>6.3435743495388985</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>3.5657157588205841</v>
+        <v>4.6994354623876067</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>3.0812886481713404</v>
+        <v>7.1131602710190975</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>4.4097762873058804E-2</v>
+        <v>5.7442981972461157E-2</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>3.1352261748109407E-2</v>
+        <v>3.5756184050912181E-2</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>3.6447757300130159</v>
+        <v>5.1278972664653946</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>1.2713648075766011</v>
+        <v>1.5474423871160867</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>1.2932948354505469</v>
+        <v>1.6346956855770871</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -7631,7 +7630,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="11"/>
@@ -7647,7 +7646,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="14"/>
-        <v>10.69146398438267</v>
+        <v>25.01284791846847</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="15"/>
@@ -7659,39 +7658,39 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.0164226960355469</v>
+        <v>6.6405750998899347</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.679279957541727</v>
+        <v>4.8705095945930941</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.0939409437441072</v>
+        <v>7.2383234333144131</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>4.3839771678849199E-2</v>
+        <v>5.6194626402166756E-2</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>3.1267124654020234E-2</v>
+        <v>3.5344226712715025E-2</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>3.7557756762356522</v>
+        <v>5.2840649878771115</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1.302717069324711</v>
+        <v>1.5831985711669996</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>1.3232948354505469</v>
+        <v>1.6646956855770871</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -7705,7 +7704,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="11"/>
@@ -7721,7 +7720,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="14"/>
-        <v>11.170601221525493</v>
+        <v>26.458679078656118</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="15"/>
@@ -7733,39 +7732,39 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" ref="J37:J68" si="18">G37^B37*(H37*I37)^(1-B37)</f>
-        <v>5.2277668270771818</v>
+        <v>6.948618048619073</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K68" si="19">J37/I37</f>
-        <v>3.7961378475278926</v>
+        <v>5.0457323049976255</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" ref="L37:L68" si="20">G37/(H37*I37)</f>
-        <v>3.1058438080721027</v>
+        <v>7.3564997045869571</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ref="M37:M68" si="21">C37*(1/L37)^(1-B37)-E37</f>
-        <v>4.3598665343157997E-2</v>
+        <v>5.5048600921645208E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" ref="N37:N68" si="22">B37*(M37-F37-D37)+F37</f>
-        <v>3.1187559563242137E-2</v>
+        <v>3.4966038304142917E-2</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>3.8701560740893637</v>
+        <v>5.4449887244630055</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.3339841939787307</v>
+        <v>1.6185427978797142</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.353294835450547</v>
+        <v>1.6946956855770874</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="11"/>
@@ -7795,7 +7794,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="14"/>
-        <v>11.668397297926752</v>
+        <v>27.956027712961141</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="15"/>
@@ -7807,39 +7806,39 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="18"/>
-        <v>5.4475815262898433</v>
+        <v>7.2682012220891545</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="19"/>
-        <v>3.9163956490550977</v>
+        <v>5.2252823579188412</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="20"/>
-        <v>3.1170408356391768</v>
+        <v>7.468041904867559</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="21"/>
-        <v>4.3373260906324707E-2</v>
+        <v>5.3994763443726709E-2</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="22"/>
-        <v>3.1113176099087151E-2</v>
+        <v>3.4618271936429815E-2</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>3.988019873653128</v>
+        <v>5.610813318448681</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.3651717535419732</v>
+        <v>1.6535088361838572</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>1.3832948354505472</v>
+        <v>1.7246956855770874</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -7853,7 +7852,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="11"/>
@@ -7869,7 +7868,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="14"/>
-        <v>12.185629681889504</v>
+        <v>29.507002272968759</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="15"/>
@@ -7881,39 +7880,39 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="18"/>
-        <v>5.6762166590032956</v>
+        <v>7.59983934399086</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="19"/>
-        <v>4.0401625634492921</v>
+        <v>5.4093401028163735</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="20"/>
-        <v>3.1275731818220733</v>
+        <v>7.5732901289505046</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="21"/>
-        <v>4.3162467712922356E-2</v>
+        <v>5.3024214709239278E-2</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="22"/>
-        <v>3.1043614345264377E-2</v>
+        <v>3.4297990854048964E-2</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>4.1094731603025973</v>
+        <v>5.7816880231622214</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>1.3962849296410604</v>
+        <v>1.6881271081202871</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.4132948354505472</v>
+        <v>1.7546956855770877</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -7927,7 +7926,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="11"/>
@@ -7943,7 +7942,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="14"/>
-        <v>12.723107523812587</v>
+        <v>31.113811337995603</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="15"/>
@@ -7955,39 +7954,39 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="18"/>
-        <v>5.9140362089072402</v>
+        <v>7.944064920472</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="19"/>
-        <v>4.1675508785821602</v>
+        <v>5.5980879334088778</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="20"/>
-        <v>3.1374796872747961</v>
+        <v>7.672571412601652</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="21"/>
-        <v>4.2965279085137364E-2</v>
+        <v>5.2129113456066481E-2</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="22"/>
-        <v>3.0978542098095328E-2</v>
+        <v>3.4002607440501938E-2</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>4.2346252501940995</v>
+        <v>5.9577666373722575</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>1.4273285439863248</v>
+        <v>1.7224250989743364</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>1.4432948354505473</v>
+        <v>1.7846956855770877</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -8001,7 +8000,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="11"/>
@@ -8017,7 +8016,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="14"/>
-        <v>13.281672924526156</v>
+        <v>32.778766027145302</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="15"/>
@@ -8029,39 +8028,39 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="18"/>
-        <v>6.1614188639821412</v>
+        <v>8.3014293134363051</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="19"/>
-        <v>4.2986760764078227</v>
+        <v>5.7917107045366247</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="20"/>
-        <v>3.1467969975570051</v>
+        <v>7.7661995671772175</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="21"/>
-        <v>4.2780764877959954E-2</v>
+        <v>5.1302523793135935E-2</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="22"/>
-        <v>3.0917652409726784E-2</v>
+        <v>3.3729832851734858E-2</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>4.363588788656557</v>
+        <v>6.139207643717242</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>1.4583070860844205</v>
+        <v>1.7564277064148384</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>1.4732948354505475</v>
+        <v>1.8146956855770877</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -8075,7 +8074,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="11"/>
@@ -8091,7 +8090,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="14"/>
-        <v>13.862202258159344</v>
+        <v>34.504282691650147</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="15"/>
@@ -8103,39 +8102,39 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="18"/>
-        <v>6.4187586255182705</v>
+        <v>8.6725038107389789</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="19"/>
-        <v>4.4336569427201269</v>
+        <v>5.9903961146607196</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="20"/>
-        <v>3.1555596779562642</v>
+        <v>7.8544751512688453</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="21"/>
-        <v>4.2608064807886731E-2</v>
+        <v>5.0538288400212794E-2</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="22"/>
-        <v>3.0860661386602619E-2</v>
+        <v>3.3477635172070225E-2</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>4.4964798515798829</v>
+        <v>6.3261743513505193</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>1.4892247384941473</v>
+        <v>1.7901575392665732</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.5032948354505475</v>
+        <v>1.844695685577088</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -8149,7 +8148,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="11"/>
@@ -8165,7 +8164,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="14"/>
-        <v>14.465607551502277</v>
+        <v>36.292885877328935</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="15"/>
@@ -8177,39 +8176,39 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="18"/>
-        <v>6.6864654412485942</v>
+        <v>9.0578807006268569</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="19"/>
-        <v>4.5726156793019985</v>
+        <v>6.1943350604081084</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="20"/>
-        <v>3.1638003234992724</v>
+        <v>7.9376855531720025</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="21"/>
-        <v>4.2446382461885521E-2</v>
+        <v>4.9830922580725828E-2</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="22"/>
-        <v>3.0807306212422222E-2</v>
+        <v>3.3244204451639524E-2</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>4.6334180498911275</v>
+        <v>6.5188350429295916</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1.5200853998807498</v>
+        <v>1.8236351744386439</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>1.5332948354505476</v>
+        <v>1.874695685577088</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -8223,7 +8222,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="11"/>
@@ -8239,7 +8238,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="14"/>
-        <v>15.092837921930132</v>
+        <v>38.147211549536991</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="15"/>
@@ -8251,39 +8250,39 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="18"/>
-        <v>6.9649658636532967</v>
+        <v>9.4581743567026724</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="19"/>
-        <v>4.7156780186315306</v>
+        <v>6.4037219684078277</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="20"/>
-        <v>3.1715496641843144</v>
+        <v>8.0161051622841448</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="21"/>
-        <v>4.2294979906106242E-2</v>
+        <v>4.9175525261347414E-2</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="22"/>
-        <v>3.0757343369015058E-2</v>
+        <v>3.3027923336244644E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>4.7745266372123751</v>
+        <v>6.7173631260818674</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508927060931719</v>
+        <v>1.8568793788902833</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.5632948354505476</v>
+        <v>1.904695685577088</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -8297,7 +8296,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="11"/>
@@ -8313,7 +8312,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="14"/>
-        <v>15.744881076064088</v>
+        <v>40.070010575162478</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="15"/>
@@ -8325,39 +8324,39 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="18"/>
-        <v>7.2547037345286798</v>
+        <v>9.8740223388626731</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="19"/>
-        <v>4.86297334130421</v>
+        <v>6.618755108743386</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="20"/>
-        <v>3.1788366654972848</v>
+        <v>8.089995611134329</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="21"/>
-        <v>4.2153172824627202E-2</v>
+        <v>4.8567703847656296E-2</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="22"/>
-        <v>3.0710547032126976E-2</v>
+        <v>3.2827342269726577E-2</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>4.9199326207973302</v>
+        <v>6.9219372894832301</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>1.5816500494621872</v>
+        <v>1.8899073022265278</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>1.5932948354505476</v>
+        <v>1.934695685577088</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -8371,7 +8370,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="11"/>
@@ -8387,7 +8386,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="14"/>
-        <v>16.422764871453246</v>
+        <v>42.064152458104466</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="15"/>
@@ -8399,39 +8398,39 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="18"/>
-        <v>7.5561408969503718</v>
+        <v>10.306086515009913</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="19"/>
-        <v>5.0146347963264084</v>
+        <v>6.8396368936129059</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="20"/>
-        <v>3.1856886242978772</v>
+        <v>8.1596060727536361</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="21"/>
-        <v>4.2020326127725091E-2</v>
+        <v>4.8003510473909466E-2</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="22"/>
-        <v>3.0666707622149278E-2</v>
+        <v>3.2641158456390124E-2</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>5.0697668758464181</v>
+        <v>7.1327416636899112</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>1.6123605964943142</v>
+        <v>1.9227346444962545</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>1.6232948354505479</v>
+        <v>1.9646956855770881</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -8445,7 +8444,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="11"/>
@@ -8461,7 +8460,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="14"/>
-        <v>17.127558943673172</v>
+        <v>44.132629326309768</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="15"/>
@@ -8473,39 +8472,39 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="18"/>
-        <v>7.8697579358006138</v>
+        <v>10.755054207841958</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="19"/>
-        <v>5.170799424432122</v>
+        <v>7.0665741642011346</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="20"/>
-        <v>3.192131260181728</v>
+        <v>8.2251736006178238</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="21"/>
-        <v>4.1895849977006322E-2</v>
+        <v>4.7479387673195428E-2</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="22"/>
-        <v>3.0625630492412084E-2</v>
+        <v>3.246819793215449E-2</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>5.2241642633032983</v>
+        <v>7.3499659868684208</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>1.6430273041164638</v>
+        <v>1.9553758029526451</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>1.6532948354505479</v>
+        <v>1.9946956855770883</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -8519,7 +8518,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="11"/>
@@ -8535,7 +8534,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="14"/>
-        <v>17.860376401350987</v>
+        <v>46.278560169891087</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="15"/>
@@ -8547,39 +8546,39 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="18"/>
-        <v>8.1960549480714491</v>
+        <v>11.221639370620299</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="19"/>
-        <v>5.3316082845725417</v>
+        <v>7.2997784682937716</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="20"/>
-        <v>3.1981888024392617</v>
+        <v>8.286923500512664</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="21"/>
-        <v>4.1779196181458852E-2</v>
+        <v>4.6992121876091725E-2</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="22"/>
-        <v>3.0587134739881422E-2</v>
+        <v>3.2307400219110272E-2</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>5.3832637512388182</v>
+        <v>7.5738057755726995</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1.6736529346088755</v>
+        <v>1.9878440008847993</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>1.6832948354505479</v>
+        <v>2.0246956855770883</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -8593,7 +8592,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="11"/>
@@ -8609,7 +8608,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="14"/>
-        <v>18.622375591744301</v>
+        <v>48.505195331135724</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="15"/>
@@ -8621,39 +8620,39 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="18"/>
-        <v>8.5355523442003065</v>
+        <v>11.706583795526347</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="19"/>
-        <v>5.4972065837266086</v>
+        <v>7.5394663307807201</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="20"/>
-        <v>3.2038840727433509</v>
+        <v>8.3450697254557173</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="21"/>
-        <v>4.166985492424824E-2</v>
+        <v>4.6538803446581206E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="22"/>
-        <v>3.0551052125001917E-2</v>
+        <v>3.2157805137371799E-2</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>5.547208539931658</v>
+        <v>7.804462500722221</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1.7042400693487574</v>
+        <v>2.0201514011039099</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>1.7132948354505479</v>
+        <v>2.0546956855770881</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -8667,7 +8666,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="11"/>
@@ -8683,7 +8682,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="14"/>
-        <v>19.414761939621929</v>
+        <v>50.815921248370977</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="15"/>
@@ -8695,39 +8694,39 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="18"/>
-        <v>8.8887916817412318</v>
+        <v>12.210658357977435</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="19"/>
-        <v>5.6677438101796822</v>
+        <v>7.7858595188821464</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="20"/>
-        <v>3.2092385637062804</v>
+        <v>8.3998152863114246</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="21"/>
-        <v>4.1567351785044129E-2</v>
+        <v>4.6116792202159515E-2</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="22"/>
-        <v>3.0517226089064563E-2</v>
+        <v>3.2018541426712642E-2</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>5.7161461907582458</v>
+        <v>8.0421437689394164</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>1.7347911214737592</v>
+        <v>2.0523092062412815</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>1.7432948354505482</v>
+        <v>2.0846956855770884</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -8741,7 +8740,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="11"/>
@@ -8757,7 +8756,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="14"/>
-        <v>20.238789862318509</v>
+        <v>53.214265456702847</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="15"/>
@@ -8769,39 +8768,39 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="18"/>
-        <v>9.2563365327246174</v>
+        <v>12.734664300102381</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="19"/>
-        <v>5.8433738704173646</v>
+        <v>8.0391853036755752</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="20"/>
-        <v>3.2142725134522681</v>
+        <v>8.4513526720039742</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="21"/>
-        <v>4.1471245026941897E-2</v>
+        <v>4.5723687554900416E-2</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="22"/>
-        <v>3.0485510858890827E-2</v>
+        <v>3.1888816893117136E-2</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>5.8902287590079601</v>
+        <v>8.2870635094096468</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>1.765308347562824</v>
+        <v>2.0843277476679942</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>1.7732948354505482</v>
+        <v>2.1146956855770886</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -8815,7 +8814,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="11"/>
@@ -8831,7 +8830,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="14"/>
-        <v>21.09576476396348</v>
+        <v>55.703901849609153</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="15"/>
@@ -8843,39 +8842,39 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="18"/>
-        <v>9.6387733861099125</v>
+        <v>13.279434556448471</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="19"/>
-        <v>6.0242552297816543</v>
+        <v>8.299676719292016</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="20"/>
-        <v>3.2190049763555342</v>
+        <v>8.4998642743029453</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="21"/>
-        <v>4.1381123120743199E-2</v>
+        <v>4.5357302562399587E-2</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="22"/>
-        <v>3.0455770629845256E-2</v>
+        <v>3.1767909845591864E-2</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>6.0696129307431494</v>
+        <v>8.5394421664319147</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>1.795793858421715</v>
+        <v>2.1162165645611117</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>1.8032948354505483</v>
+        <v>2.1446956855770889</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -8889,7 +8888,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="11"/>
@@ -8905,7 +8904,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="14"/>
-        <v>21.987045112017064</v>
+        <v>58.288656206262132</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="15"/>
@@ -8917,39 +8916,39 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="18"/>
-        <v>10.036712586790227</v>
+        <v>13.845835124902532</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="19"/>
-        <v>6.210551057037474</v>
+        <v>8.5675728209758333</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="20"/>
-        <v>3.2234538900957883</v>
+        <v>8.5455228130604777</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="21"/>
-        <v>4.129660248256499E-2</v>
+        <v>4.5015641300133691E-2</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="22"/>
-        <v>3.0427878819246447E-2</v>
+        <v>3.1655161629044117E-2</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>6.2544601638271731</v>
+        <v>8.7995068978336093</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>1.8262496290515604</v>
+        <v>2.1479844744067038</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>1.8332948354505485</v>
+        <v>2.1746956855770887</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -8963,7 +8962,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="11"/>
@@ -8979,7 +8978,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="14"/>
-        <v>22.914044599382848</v>
+        <v>60.972511990292844</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="15"/>
@@ -8991,39 +8990,39 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="18"/>
-        <v>10.450789312664611</v>
+        <v>14.434766485751179</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="19"/>
-        <v>6.4024293729987862</v>
+        <v>8.8431189430598458</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="20"/>
-        <v>3.22763613918347</v>
+        <v>8.5884917585421405</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="21"/>
-        <v>4.1217325403530791E-2</v>
+        <v>4.4696879066089837E-2</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="22"/>
-        <v>3.0401717383165161E-2</v>
+        <v>3.1549970091809647E-2</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>6.4449368332473664</v>
+        <v>9.0674917794278898</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>1.8566775078708067</v>
+        <v>2.1796396360357475</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1.8632948354505485</v>
+        <v>2.2046956855770889</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -9037,7 +9036,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="11"/>
@@ -9053,7 +9052,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="14"/>
-        <v>23.878234395508041</v>
+        <v>63.759616426501545</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="15"/>
@@ -9065,39 +9064,39 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="18"/>
-        <v>10.88166459135326</v>
+        <v>15.047165071774101</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="19"/>
-        <v>6.6000632033651323</v>
+        <v>9.1265669577880892</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="20"/>
-        <v>3.2315676151063109</v>
+        <v>8.6289257481383768</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="21"/>
-        <v>4.1142958152720996E-2</v>
+        <v>4.439934500935791E-2</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="22"/>
-        <v>3.0377176190397929E-2</v>
+        <v>3.1451783853088111E-2</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>6.6412143808637705</v>
+        <v>9.3436380156977119</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1.8870792252539721</v>
+        <v>2.2111896061275575</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1.8932948354505488</v>
+        <v>2.2346956855770892</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -9111,7 +9110,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="11"/>
@@ -9127,7 +9126,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="14"/>
-        <v>24.881145490029095</v>
+        <v>66.654286862773787</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="15"/>
@@ -9139,39 +9138,39 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="18"/>
-        <v>11.330026358193075</v>
+        <v>15.684004792255639</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="19"/>
-        <v>6.8036307359214172</v>
+        <v>9.4181755358199535</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="20"/>
-        <v>3.235263273247047</v>
+        <v>8.6669709952872829</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="21"/>
-        <v>4.1073189236673122E-2</v>
+        <v>4.4121506840485686E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="22"/>
-        <v>3.0354152448102131E-2</v>
+        <v>3.1360097257360275E-2</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>6.8434694697183707</v>
+        <v>9.62819415689615</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1.91745640144437</v>
+        <v>2.2426413899806459</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.9232948354505486</v>
+        <v>2.264695685577089</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -9185,7 +9184,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="11"/>
@@ -9201,7 +9200,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="14"/>
-        <v>25.92437113267227</v>
+        <v>69.661017425189826</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="15"/>
@@ -9213,39 +9212,39 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="18"/>
-        <v>11.796590557215991</v>
+        <v>16.346298613810401</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="19"/>
-        <v>7.0133154822561092</v>
+        <v>9.7182104091670407</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="20"/>
-        <v>3.2387371867195545</v>
+        <v>8.702765688898122</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="21"/>
-        <v>4.1007727800570229E-2</v>
+        <v>4.3861957335693411E-2</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="22"/>
-        <v>3.0332550174188174E-2</v>
+        <v>3.1274445920778826E-2</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>7.0518841430437647</v>
+        <v>9.9214163227583949</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>1.9478105538924724</v>
+        <v>2.2740014872380061</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>1.9532948354505486</v>
+        <v>2.2946956855770888</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -9259,7 +9258,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="11"/>
@@ -9275,7 +9274,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="14"/>
-        <v>27.009569373276172</v>
+        <v>72.784485975021212</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="15"/>
@@ -9287,39 +9286,39 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="18"/>
-        <v>12.282102286880264</v>
+        <v>17.035100200945742</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="19"/>
-        <v>7.2293064441556556</v>
+        <v>10.026944637245467</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="20"/>
-        <v>3.2420025972675077</v>
+        <v>8.7364403819510876</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="21"/>
-        <v>4.0946302157874703E-2</v>
+        <v>4.3619402391833831E-2</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="22"/>
-        <v>3.0312279712098652E-2</v>
+        <v>3.1194402789305162E-2</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>7.2666459881143597</v>
+        <v>10.22356843302682</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>1.9781431040666606</v>
+        <v>2.3052759331587853</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>1.9832948354505489</v>
+        <v>2.3246956855770895</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -9333,7 +9332,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="11"/>
@@ -9349,7 +9348,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="14"/>
-        <v>28.138465705966578</v>
+        <v>76.029561377000348</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="15"/>
@@ -9361,39 +9360,39 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="18"/>
-        <v>12.787336992395621</v>
+        <v>17.751505619325648</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="19"/>
-        <v>7.4517982848358608</v>
+        <v>10.344658876669138</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="20"/>
-        <v>3.2450719633659699</v>
+        <v>8.7681183682733774</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="21"/>
-        <v>4.0888658436583861E-2</v>
+        <v>4.3392650426078316E-2</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="22"/>
-        <v>3.0293257284072672E-2</v>
+        <v>3.1119574640605843E-2</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>7.4879483050875768</v>
+        <v>10.534922444996539</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>2.0084553837787595</v>
+        <v>2.3364703359480905</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>2.0132948354505489</v>
+        <v>2.3546956855770893</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -9407,7 +9406,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="11"/>
@@ -9423,7 +9422,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="14"/>
-        <v>29.31285582168351</v>
+        <v>79.401311088929418</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="15"/>
@@ -9435,39 +9434,39 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="18"/>
-        <v>13.313101706556983</v>
+        <v>18.496655104755202</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="19"/>
-        <v>7.6809915051742301</v>
+        <v>10.671641655361839</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="20"/>
-        <v>3.2479570056622613</v>
+        <v>8.7979160467635911</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="21"/>
-        <v>4.0834559331533474E-2</v>
+        <v>4.3180602945152732E-2</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="22"/>
-        <v>3.0275404579406046E-2</v>
+        <v>3.1049598971900402E-2</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>7.7159902809870458</v>
+        <v>10.855758598295354</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>2.0387486410628322</v>
+        <v>2.3675899105886962</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>2.0432948354505491</v>
+        <v>2.3846956855770896</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -9481,7 +9480,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="11"/>
@@ -9497,7 +9496,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="14"/>
-        <v>30.534608473436275</v>
+        <v>82.905009083371439</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="15"/>
@@ -9509,39 +9508,39 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="18"/>
-        <v>13.860236341078405</v>
+        <v>19.271734900971172</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="19"/>
-        <v>7.9170926251107669</v>
+        <v>11.008189651526342</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="20"/>
-        <v>3.2506687498880891</v>
+        <v>8.8259432725641016</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="21"/>
-        <v>4.0783782953275394E-2</v>
+        <v>4.2982246134686611E-2</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="22"/>
-        <v>3.0258648374580879E-2</v>
+        <v>3.0984141224446579E-2</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>7.9509771689843731</v>
+        <v>11.186365667118324</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>2.0690240456422382</v>
+        <v>2.3986395095605966</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>2.0732948354505494</v>
+        <v>2.4146956855770894</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -9555,7 +9554,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="11"/>
@@ -9571,7 +9570,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="14"/>
-        <v>31.805668458845066</v>
+        <v>86.546144112839983</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="15"/>
@@ -9583,39 +9582,39 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="18"/>
-        <v>14.429615030499098</v>
+        <v>20.077979169401093</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="19"/>
-        <v>8.1603143703884857</v>
+        <v>11.354607977975789</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="20"/>
-        <v>3.2532175673703612</v>
+        <v>8.8523036948704288</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="21"/>
-        <v>4.0736121765026209E-2</v>
+        <v>4.2796643340797066E-2</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="22"/>
-        <v>3.0242920182458648E-2</v>
+        <v>3.0922892302463031E-2</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>8.193120473140846</v>
+        <v>11.527041220144035</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2.0992826940168192</v>
+        <v>2.4296236507850439</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>2.1032948354505492</v>
+        <v>2.4446956855770896</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -9629,7 +9628,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="11"/>
@@ -9645,7 +9644,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="14"/>
-        <v>33.128059724717517</v>
+        <v>90.330428330580474</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="15"/>
@@ -9657,39 +9656,39 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="18"/>
-        <v>15.022147530816801</v>
+        <v>20.916671974140083</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="19"/>
-        <v>8.4108758648088671</v>
+        <v>11.711210472305428</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="20"/>
-        <v>3.2556132132634312</v>
+        <v>8.8770950812239526</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="21"/>
-        <v>4.0691381600042667E-2</v>
+        <v>4.2622928334145674E-2</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="22"/>
-        <v>3.0228155928014078E-2</v>
+        <v>3.0865566350268072E-2</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>8.4426381387753686</v>
+        <v>11.878091888366502</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.1295256141992782</v>
+        <v>2.4605465430875064</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>2.1332948354505494</v>
+        <v>2.4746956855770899</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -9703,7 +9702,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="11"/>
@@ -9719,7 +9718,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="14"/>
-        <v>34.503888598605783</v>
+        <v>94.26380627971696</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="15"/>
@@ -9731,39 +9730,39 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="18"/>
-        <v>15.638780675091231</v>
+        <v>21.789149345490898</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="19"/>
-        <v>8.6690028281818581</v>
+        <v>12.078319993360706</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="20"/>
-        <v>3.2578648626207127</v>
+        <v>8.9004096282638887</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="21"/>
-        <v>4.0649380752540223E-2</v>
+        <v>4.2460299261984483E-2</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="22"/>
-        <v>3.0214295648338274E-2</v>
+        <v>3.0811898756454879E-2</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>8.6997547486299602</v>
+        <v>12.239833641083754</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>2.159753770127292</v>
+        <v>2.4914121094377748</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>2.1632948354505497</v>
+        <v>2.5046956855770901</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -9777,7 +9776,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="11"/>
@@ -9793,7 +9792,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="14"/>
-        <v>35.935347152494707</v>
+        <v>98.352464264227621</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="15"/>
@@ -9805,39 +9804,39 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="18"/>
-        <v>16.280499888350569</v>
+        <v>22.696801425516792</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="19"/>
-        <v>8.9349277801543483</v>
+        <v>12.456268724439182</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="20"/>
-        <v>3.2599811444188402</v>
+        <v>8.9223342590208219</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="21"/>
-        <v>4.0609949135946205E-2</v>
+        <v>4.2308013206627859E-2</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="22"/>
-        <v>3.0201283214862248E-2</v>
+        <v>3.0761644358187193E-2</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>8.9647017250093821</v>
+        <v>12.612592070291539</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>2.1899680657756306</v>
+        <v>2.5222240081942298</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>2.1932948354505495</v>
+        <v>2.5346956855770899</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -9851,7 +9850,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="11"/>
@@ -9867,7 +9866,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="14"/>
-        <v>37.424716703984679</v>
+        <v>102.60284011591237</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="15"/>
@@ -9879,39 +9878,39 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="18"/>
-        <v>16.948330764228814</v>
+        <v>23.641074699170833</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="19"/>
-        <v>9.2088902501058669</v>
+        <v>12.845398483649724</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="20"/>
-        <v>3.2619701736427418</v>
+        <v>8.942950906920462</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="21"/>
-        <v>4.0572927502878317E-2</v>
+        <v>4.2165381279750391E-2</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="22"/>
-        <v>3.0189066075949844E-2</v>
+        <v>3.0714575822317628E-2</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>9.2377175380768328</v>
+        <v>12.996702683738091</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2.2201693489904928</v>
+        <v>2.5529856525524175</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>2.2232948354505497</v>
+        <v>2.5646956855770902</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -9925,7 +9924,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="11"/>
@@ -9941,7 +9940,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" si="14"/>
-        <v>38.974371460554387</v>
+        <v>107.02163337222846</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="15"/>
@@ -9953,39 +9952,39 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" si="18"/>
-        <v>17.643340705860179</v>
+        <v>24.623474314685893</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="19"/>
-        <v>9.4911369933052452</v>
+        <v>13.246061041840704</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="20"/>
-        <v>3.2638395815352532</v>
+        <v>8.9623367867358255</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="21"/>
-        <v>4.0538166721774307E-2</v>
+        <v>4.2031764191240842E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="22"/>
-        <v>3.0177595018185521E-2</v>
+        <v>3.0670482183109478E-2</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>9.5190479204931915</v>
+        <v>13.392511206903757</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>2.2503584150664429</v>
+        <v>2.583700228374735</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>2.25329483545055</v>
+        <v>2.5946956855770904</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -9999,7 +9998,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="11"/>
@@ -10015,7 +10014,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="14"/>
-        <v>40.586782312718782</v>
+        <v>111.61581588059906</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="15"/>
@@ -10027,39 +10026,39 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="18"/>
-        <v>18.366640633659056</v>
+        <v>25.645566497039216</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="19"/>
-        <v>9.7819222135270021</v>
+        <v>13.658618448500352</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="20"/>
-        <v>3.2655965441102355</v>
+        <v>8.9805646527812275</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="21"/>
-        <v>4.0505527105574271E-2</v>
+        <v>4.1906568239302375E-2</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="22"/>
-        <v>3.0166823944839508E-2</v>
+        <v>3.0629167518969783E-2</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>9.8089460885930055</v>
+        <v>13.800373894177262</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>2.2805360100846284</v>
+        <v>2.6143707105578446</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>2.2832948354505498</v>
+        <v>2.6246956855770902</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -10073,7 +10072,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="11"/>
@@ -10089,7 +10088,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="14"/>
-        <v>42.264520782137261</v>
+        <v>116.39264284554496</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="15"/>
@@ -10101,39 +10100,39 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J100" si="23">G69^B69*(H69*I69)^(1-B69)</f>
-        <v>19.119386762721067</v>
+        <v>26.708981058442337</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K100" si="24">J69/I69</f>
-        <v>10.081507792331836</v>
+        <v>14.083443366026025</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L104" si="25">G69/(H69*I69)</f>
-        <v>3.2672478090235724</v>
+        <v>8.9977030446845525</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M100" si="26">C69*(1/L69)^(1-B69)-E69</f>
-        <v>4.0474877788282987E-2</v>
+        <v>4.1789241675302874E-2</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N100" si="27">B69*(M69-F69-D69)+F69</f>
-        <v>3.0156709670133387E-2</v>
+        <v>3.0590449752849948E-2</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" si="5"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="6"/>
-        <v>10.10767297029628</v>
+        <v>14.220657849508713</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="7"/>
-        <v>2.3107028340294677</v>
+        <v>2.6449998780768142</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="8"/>
-        <v>2.31329483545055</v>
+        <v>2.6546956855770905</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -10147,7 +10146,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="11"/>
@@ -10163,7 +10162,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="14"/>
-        <v>44.010263130976043</v>
+        <v>121.35966433575598</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="15"/>
@@ -10175,39 +10174,39 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="23"/>
-        <v>19.902782452691596</v>
+        <v>27.815414009952395</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="24"/>
-        <v>10.390163525220977</v>
+        <v>14.520919412754948</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="25"/>
-        <v>3.2687997208919675</v>
+        <v>9.0138165211070884</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="26"/>
-        <v>4.04460961456206E-2</v>
+        <v>4.1679271402721582E-2</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="27"/>
-        <v>3.0147211728054797E-2</v>
+        <v>3.0554159562898121E-2</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" ref="O70:O104" si="28">(C70/(D70+E70+F70))^(1/(1-B70))</f>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" ref="P70:P104" si="29">O70^B70*H70</f>
-        <v>10.415497439961213</v>
+        <v>14.653741356827924</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" ref="Q70:Q104" si="30">LN(K70)</f>
-        <v>2.3408595436996009</v>
+        <v>2.6755903278296644</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" ref="R70:R104" si="31">LN(P70)</f>
-        <v>2.3432948354505498</v>
+        <v>2.6846956855770903</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -10221,7 +10220,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ref="C71:C104" si="34">C70</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" ref="D71:D104" si="35">D70</f>
@@ -10237,7 +10236,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ref="G71:G104" si="38">G70*EXP(M70)</f>
-        <v>45.826794639087858</v>
+        <v>126.52473726900523</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" ref="H71:H104" si="39">H70*EXP(F71)</f>
@@ -10249,39 +10248,39 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" si="23"/>
-        <v>20.718080133064216</v>
+        <v>28.966630278453454</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="24"/>
-        <v>10.708167364880278</v>
+        <v>14.971441515146436</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="25"/>
-        <v>3.2702582451450999</v>
+        <v>9.0289658818044174</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="26"/>
-        <v>4.0419067256311156E-2</v>
+        <v>4.157617997456825E-2</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="27"/>
-        <v>3.013829219458268E-2</v>
+        <v>3.0520139391607522E-2</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="29"/>
-        <v>10.732696560389281</v>
+        <v>15.100014220525496</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="30"/>
-        <v>2.3710067554276564</v>
+        <v>2.7061444873925624</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="31"/>
-        <v>2.3732948354505501</v>
+        <v>2.7146956855770905</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -10295,7 +10294,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="35"/>
@@ -10311,7 +10310,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="38"/>
-        <v>47.717014055841446</v>
+        <v>131.89603789362008</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="39"/>
@@ -10323,39 +10322,39 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="23"/>
-        <v>21.566583306991628</v>
+        <v>30.164466533417446</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="24"/>
-        <v>11.035805671735753</v>
+        <v>15.435416269504911</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="25"/>
-        <v>3.2716289904925069</v>
+        <v>9.0432083784387665</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="26"/>
-        <v>4.0393683400864383E-2</v>
+        <v>4.1479522857984327E-2</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="27"/>
-        <v>3.0129915522285246E-2</v>
+        <v>3.0488242543134828E-2</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="29"/>
-        <v>11.059555832200452</v>
+        <v>15.559878116303079</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="30"/>
-        <v>2.4011450476222387</v>
+        <v>2.7366646267841701</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="31"/>
-        <v>2.4032948354505503</v>
+        <v>2.7446956855770908</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -10369,7 +10368,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="35"/>
@@ -10385,7 +10384,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="38"/>
-        <v>49.68393823371396</v>
+        <v>137.48207478606028</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="39"/>
@@ -10397,39 +10396,39 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" si="23"/>
-        <v>22.449648636817511</v>
+        <v>31.410834128022898</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="24"/>
-        <v>11.373373472048829</v>
+        <v>15.913262313633496</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="25"/>
-        <v>3.2729172300824838</v>
+        <v>9.0565979145640974</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="26"/>
-        <v>4.036984359498251E-2</v>
+        <v>4.1388885938482362E-2</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="27"/>
-        <v>3.0122048386344226E-2</v>
+        <v>3.0458332359699178E-2</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="29"/>
-        <v>11.396369450803016</v>
+        <v>16.033746952708615</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="30"/>
-        <v>2.4312749631445247</v>
+        <v>2.7671528693273051</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="31"/>
-        <v>2.4332948354505506</v>
+        <v>2.7746956855770906</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -10443,7 +10442,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="35"/>
@@ -10459,7 +10458,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="38"/>
-        <v>51.730706951050635</v>
+        <v>143.29170238501621</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="39"/>
@@ -10471,39 +10470,39 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" si="23"/>
-        <v>23.368688114667826</v>
+        <v>32.70772215938679</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="24"/>
-        <v>11.721174723785829</v>
+        <v>16.405410708810066</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="25"/>
-        <v>3.274127921426357</v>
+        <v>9.0691852352110338</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="26"/>
-        <v>4.0347453154970722E-2</v>
+        <v>4.1303883239528008E-2</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="27"/>
-        <v>3.0114659541140336E-2</v>
+        <v>3.0430281469044241E-2</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="29"/>
-        <v>11.743440571189319</v>
+        <v>16.522047243681978</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="30"/>
-        <v>2.461397011530869</v>
+        <v>2.7976112016870047</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="31"/>
-        <v>2.4632948354505504</v>
+        <v>2.8046956855770908</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -10517,7 +10516,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="35"/>
@@ -10533,7 +10532,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="38"/>
-        <v>53.860587931699932</v>
+        <v>149.33413508333291</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="39"/>
@@ -10545,39 +10544,39 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="23"/>
-        <v>24.325171321576672</v>
+        <v>34.057200652849914</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="24"/>
-        <v>12.079522590503327</v>
+        <v>16.912305332480596</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="25"/>
-        <v>3.2752657251577366</v>
+        <v>9.0810181065002471</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="26"/>
-        <v>4.0326423292754182E-2</v>
+        <v>4.122415483598571E-2</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="27"/>
-        <v>3.0107719686608879E-2</v>
+        <v>3.0403971095875285E-2</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="29"/>
-        <v>12.101081580795713</v>
+        <v>17.025218492446303</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="30"/>
-        <v>2.4915116710720091</v>
+        <v>2.8280414831560492</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="31"/>
-        <v>2.4932948354505506</v>
+        <v>2.8346956855770911</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -10591,7 +10590,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="35"/>
@@ -10607,7 +10606,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="38"/>
-        <v>56.076982069547753</v>
+        <v>155.61896189998876</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="39"/>
@@ -10619,39 +10618,39 @@
       </c>
       <c r="J76" s="2">
         <f t="shared" si="23"/>
-        <v>25.320627778762688</v>
+        <v>35.461423875450279</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="24"/>
-        <v>12.448739723497697</v>
+        <v>17.434403282068992</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="25"/>
-        <v>3.2763350226927033</v>
+        <v>9.0921414857111351</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="26"/>
-        <v>4.0306670738306044E-2</v>
+        <v>4.1149364942403857E-2</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="27"/>
-        <v>3.0101201343640995E-2</v>
+        <v>3.0379290430993272E-2</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="29"/>
-        <v>12.469614380672333</v>
+        <v>17.543713587090551</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="30"/>
-        <v>2.5216193907586177</v>
+        <v>2.8584454542519242</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="31"/>
-        <v>2.5232948354505504</v>
+        <v>2.8646956855770909</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -10665,7 +10664,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="35"/>
@@ -10681,7 +10680,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="38"/>
-        <v>58.383428866303092</v>
+        <v>162.15616175531338</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="39"/>
@@ -10693,39 +10692,39 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="23"/>
-        <v>26.356649394819865</v>
+        <v>36.922633783921135</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="24"/>
-        <v>12.829158552474691</v>
+        <v>17.972175290307618</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="25"/>
-        <v>3.2773399328534447</v>
+        <v>9.1025976822279535</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="26"/>
-        <v>4.0288117387473385E-2</v>
+        <v>4.1079200159253412E-2</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="27"/>
-        <v>3.0095078737866217E-2</v>
+        <v>3.0356136052553627E-2</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="29"/>
-        <v>12.849370675215782</v>
+        <v>18.07799920819938</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="30"/>
-        <v>2.5517205921022592</v>
+        <v>2.8888247446829176</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="31"/>
-        <v>2.5532948354505507</v>
+        <v>2.8946956855770911</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -10739,7 +10738,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="35"/>
@@ -10755,7 +10754,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="38"/>
-        <v>60.783612091229024</v>
+        <v>168.95611937361923</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="39"/>
@@ -10767,39 +10766,39 @@
       </c>
       <c r="J78" s="2">
         <f t="shared" si="23"/>
-        <v>27.434893012739625</v>
+        <v>38.443163612762362</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="24"/>
-        <v>13.22112158500221</v>
+        <v>18.526106152498876</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="25"/>
-        <v>3.2782843275144899</v>
+        <v>9.1124265097784161</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="26"/>
-        <v>4.0270689973353674E-2</v>
+        <v>4.1013367862105077E-2</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="27"/>
-        <v>3.0089327691206712E-2</v>
+        <v>3.0334411394494675E-2</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="29"/>
-        <v>13.240692270725468</v>
+        <v>18.628556248897141</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="30"/>
-        <v>2.5818156708401254</v>
+        <v>2.9191808807354716</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="31"/>
-        <v>2.5832948354505509</v>
+        <v>2.9246956855770914</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -10813,7 +10812,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="35"/>
@@ -10829,7 +10828,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="38"/>
-        <v>63.281365671868862</v>
+        <v>176.02964183844892</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="39"/>
@@ -10841,39 +10840,39 @@
       </c>
       <c r="J79" s="2">
         <f t="shared" si="23"/>
-        <v>28.557083060840981</v>
+        <v>40.025441608154551</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="24"/>
-        <v>13.624981715017357</v>
+        <v>19.096695166125301</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="25"/>
-        <v>3.2791718463275532</v>
+        <v>9.121665430371193</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="26"/>
-        <v>4.0254319759523677E-2</v>
+        <v>4.0951594720366191E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="27"/>
-        <v>3.0083925520642811E-2</v>
+        <v>3.0314026257720842E-2</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="29"/>
-        <v>13.643931383052346</v>
+        <v>19.195880247684176</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="30"/>
-        <v>2.6119049985313327</v>
+        <v>2.9495152921299663</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="31"/>
-        <v>2.6132948354505507</v>
+        <v>2.9546956855770912</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -10887,7 +10886,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="35"/>
@@ -10903,7 +10902,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="38"/>
-        <v>65.880679825187357</v>
+        <v>183.38797582670429</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="39"/>
@@ -10915,39 +10914,39 @@
       </c>
       <c r="J80" s="2">
         <f t="shared" si="23"/>
-        <v>29.725014311851425</v>
+        <v>41.671994913715523</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="24"/>
-        <v>14.041102540666699</v>
+        <v>19.684456583233064</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="25"/>
-        <v>3.2800059105779629</v>
+        <v>9.1303496903283214</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="26"/>
-        <v>4.0238942253558951E-2</v>
+        <v>4.0893625333635261E-2</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="27"/>
-        <v>3.0078850943674452E-2</v>
+        <v>3.0294896360099636E-2</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="29"/>
-        <v>14.059450954616969</v>
+        <v>19.780481834454921</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="30"/>
-        <v>2.6419889240519749</v>
+        <v>2.9798293183876869</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="31"/>
-        <v>2.643294835450551</v>
+        <v>2.9846956855770914</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -10961,7 +10960,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="35"/>
@@ -10977,7 +10976,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="38"/>
-        <v>68.585707438931792</v>
+        <v>191.04282554902869</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="39"/>
@@ -10989,39 +10988,39 @@
       </c>
       <c r="J81" s="2">
         <f t="shared" si="23"/>
-        <v>30.940554754554636</v>
+        <v>43.38545361433976</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="24"/>
-        <v>14.469858691767147</v>
+        <v>20.289920076022597</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="25"/>
-        <v>3.2807897362227267</v>
+        <v>9.1385124487972185</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="26"/>
-        <v>4.0224496939406454E-2</v>
+        <v>4.083922097499644E-2</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="27"/>
-        <v>3.0074083990004129E-2</v>
+        <v>3.0276942921748824E-2</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="29"/>
-        <v>14.487624981082156</v>
+        <v>20.38288719009925</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="30"/>
-        <v>2.6720677749956496</v>
+        <v>3.0101242147477865</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="31"/>
-        <v>2.6732948354505508</v>
+        <v>3.0146956855770912</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -11035,7 +11034,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="35"/>
@@ -11051,7 +11050,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="38"/>
-        <v>71.400770713419021</v>
+        <v>199.00637142496132</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="39"/>
@@ -11063,39 +11062,39 @@
       </c>
       <c r="J82" s="2">
         <f t="shared" si="23"/>
-        <v>32.205648582600503</v>
+        <v>45.168554944611387</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="24"/>
-        <v>14.91163616718314</v>
+        <v>20.913631216088991</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="25"/>
-        <v>3.2815263461575896</v>
+        <v>9.1461848991148305</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="26"/>
-        <v>4.0210927027284293E-2</v>
+        <v>4.0788158431687122E-2</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="27"/>
-        <v>3.0069605919003817E-2</v>
+        <v>3.0260092282456748E-2</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="29"/>
-        <v>14.928838847974344</v>
+        <v>21.003638520100836</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="30"/>
-        <v>2.7021418589856543</v>
+        <v>3.0404011576695358</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="31"/>
-        <v>2.703294835450551</v>
+        <v>3.0446956855770915</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -11109,7 +11108,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="35"/>
@@ -11125,7 +11124,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="38"/>
-        <v>74.330368074371094</v>
+        <v>207.29128952257309</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="39"/>
@@ -11137,39 +11136,39 @@
       </c>
       <c r="J83" s="2">
         <f t="shared" si="23"/>
-        <v>33.522319305261121</v>
+        <v>47.024147668543307</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="24"/>
-        <v>15.366832682424974</v>
+        <v>21.556151967764951</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="25"/>
-        <v>3.2822185817577711</v>
+        <v>9.1533963833835887</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="26"/>
-        <v>4.0198179219886152E-2</v>
+        <v>4.0740228934554673E-2</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="27"/>
-        <v>3.006539914256243E-2</v>
+        <v>3.0244275548403043E-2</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="29"/>
-        <v>15.383489677556561</v>
+        <v>21.643294542558642</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="30"/>
-        <v>2.7322114649046578</v>
+        <v>3.0706612499519923</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="31"/>
-        <v>2.7332948354505513</v>
+        <v>3.0746956855770917</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -11183,7 +11182,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="35"/>
@@ -11199,7 +11198,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="38"/>
-        <v>77.379181367856845</v>
+        <v>215.91077179353152</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="39"/>
@@ -11211,39 +11210,39 @@
       </c>
       <c r="J84" s="2">
         <f t="shared" si="23"/>
-        <v>34.892672985111027</v>
+        <v>48.95519663766693</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="24"/>
-        <v>15.83585802778204</v>
+        <v>22.218061196029616</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="25"/>
-        <v>3.2828691137346313</v>
+        <v>9.1601745006057662</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="26"/>
-        <v>4.0186203493761383E-2</v>
+        <v>4.069523716858596E-2</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="27"/>
-        <v>3.0061447152941255E-2</v>
+        <v>3.0229428265633365E-2</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="29"/>
-        <v>15.851986686265285</v>
+        <v>22.302430991070963</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="30"/>
-        <v>2.7622768640472204</v>
+        <v>3.1009055255003957</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="31"/>
-        <v>2.7632948354505511</v>
+        <v>3.1046956855770915</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -11257,7 +11256,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="35"/>
@@ -11273,7 +11272,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="38"/>
-        <v>80.552083348847802</v>
+        <v>224.87854713582709</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="39"/>
@@ -11285,39 +11284,39 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" si="23"/>
-        <v>36.318901607812805</v>
+        <v>50.964787534780619</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="24"/>
-        <v>16.319134437313966</v>
+        <v>22.899955189457465</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="25"/>
-        <v>3.2834804523480958</v>
+        <v>9.1665452087092394</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="26"/>
-        <v>4.017495289482742E-2</v>
+        <v>4.065300035756246E-2</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="27"/>
-        <v>3.0057734455293049E-2</v>
+        <v>3.0215490117995611E-2</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="29"/>
-        <v>16.334751553032849</v>
+        <v>22.981641132934502</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="30"/>
-        <v>2.7923383112001621</v>
+        <v>3.1311349537660291</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="31"/>
-        <v>2.7932948354505513</v>
+        <v>3.1346956855770918</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -11331,7 +11330,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="35"/>
@@ -11347,7 +11346,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="38"/>
-        <v>83.854145475367645</v>
+        <v>234.20890331773097</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="39"/>
@@ -11359,39 +11358,39 @@
       </c>
       <c r="J86" s="2">
         <f t="shared" si="23"/>
-        <v>37.803286589401324</v>
+        <v>53.056131810961375</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="24"/>
-        <v>16.817096969032868</v>
+        <v>23.60244819869396</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="25"/>
-        <v>3.2840549570125055</v>
+        <v>9.1725329207844357</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="26"/>
-        <v>4.0164383347049054E-2</v>
+        <v>4.0613347416574921E-2</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="27"/>
-        <v>3.0054246504526188E-2</v>
+        <v>3.0202404647469722E-2</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="29"/>
-        <v>16.832218798826954</v>
+        <v>23.681536303125</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="30"/>
-        <v>2.8223960456554549</v>
+        <v>3.1613504438840248</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="31"/>
-        <v>2.8232948354505516</v>
+        <v>3.164695685577092</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -11405,7 +11404,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="35"/>
@@ -11421,7 +11420,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="38"/>
-        <v>87.290646020703235</v>
+        <v>243.91670979794071</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="39"/>
@@ -11433,39 +11432,39 @@
       </c>
       <c r="J87" s="2">
         <f t="shared" si="23"/>
-        <v>39.348202426678952</v>
+        <v>55.232571823751172</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="24"/>
-        <v>17.330193896619342</v>
+        <v>24.326172990956387</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="25"/>
-        <v>3.2845948453313407</v>
+        <v>9.1781605958384009</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="26"/>
-        <v>4.015445347339168E-2</v>
+        <v>4.0576118166739089E-2</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="27"/>
-        <v>3.0050969646219252E-2</v>
+        <v>3.0190118995023899E-2</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="29"/>
-        <v>17.344836177748853</v>
+        <v>24.402746454539962</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="30"/>
-        <v>2.8524502921599812</v>
+        <v>3.1915528485314946</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="31"/>
-        <v>2.8532948354505514</v>
+        <v>3.1946956855770918</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -11479,7 +11478,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="35"/>
@@ -11495,7 +11494,7 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="38"/>
-        <v>90.867078516654644</v>
+        <v>254.01744147831684</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="39"/>
@@ -11507,39 +11506,39 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="23"/>
-        <v>40.956120496563592</v>
+        <v>57.497586184750936</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="24"/>
-        <v>17.858887113025535</v>
+        <v>25.071781421071861</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="25"/>
-        <v>3.2851022015943472</v>
+        <v>9.183449824358938</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="26"/>
-        <v>4.0145124428220588E-2</v>
+        <v>4.0541162606992101E-2</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="27"/>
-        <v>3.0047891061312792E-2</v>
+        <v>3.0178583660307394E-2</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="29"/>
-        <v>17.873065080042295</v>
+        <v>25.145920724998813</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="30"/>
-        <v>2.8825012618062003</v>
+        <v>3.2217429675265188</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="31"/>
-        <v>2.8832948354505517</v>
+        <v>3.2246956855770921</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -11553,7 +11552,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="35"/>
@@ -11569,7 +11568,7 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="38"/>
-        <v>94.589160541331594</v>
+        <v>264.52720342711257</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="39"/>
@@ -11581,39 +11580,39 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="23"/>
-        <v>42.629613010469647</v>
+        <v>59.854795325188853</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="24"/>
-        <v>18.403652546329127</v>
+        <v>25.839945019577954</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="25"/>
-        <v>3.2855789847686059</v>
+        <v>9.1884209089683058</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="26"/>
-        <v>4.013635974037906E-2</v>
+        <v>4.0508340238331941E-2</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="27"/>
-        <v>3.0044998714325089E-2</v>
+        <v>3.016775227864954E-2</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="29"/>
-        <v>18.417380947375861</v>
+        <v>25.911728021510736</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="30"/>
-        <v>2.9125491528675131</v>
+        <v>3.2519215511868262</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="31"/>
-        <v>2.9132948354505519</v>
+        <v>3.2546956855770919</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -11627,7 +11626,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="35"/>
@@ -11643,7 +11642,7 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="38"/>
-        <v>98.46284286555516</v>
+        <v>275.4627566121606</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="39"/>
@@ -11655,39 +11654,39 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="23"/>
-        <v>44.371357130049788</v>
+        <v>62.307967288377554</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="24"/>
-        <v>18.964980588213056</v>
+        <v>26.631355598425628</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="25"/>
-        <v>3.286027036013345</v>
+        <v>9.1930929404332513</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="26"/>
-        <v>4.0128125166233708E-2</v>
+        <v>4.0477519436290896E-2</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="27"/>
-        <v>3.0042281304857123E-2</v>
+        <v>3.0157581413975995E-2</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="29"/>
-        <v>18.978273700772576</v>
+        <v>26.70085762233613</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="30"/>
-        <v>2.9425941515818388</v>
+        <v>3.2820893034654754</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="31"/>
-        <v>2.9432948354505517</v>
+        <v>3.2846956855770921</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -11701,7 +11700,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="35"/>
@@ -11717,7 +11716,7 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="38"/>
-        <v>102.49431897249787</v>
+        <v>286.84154468510536</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="39"/>
@@ -11729,39 +11728,39 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="23"/>
-        <v>46.184139250883959</v>
+        <v>64.861023758337012</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="24"/>
-        <v>19.543376535457117</v>
+        <v>27.446725874839128</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="25"/>
-        <v>3.2864480857465401</v>
+        <v>9.1974838692854348</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="26"/>
-        <v>4.0120388552025987E-2</v>
+        <v>4.0448576867819427E-2</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="27"/>
-        <v>3.0039728222168573E-2</v>
+        <v>3.0148030366380411E-2</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="29"/>
-        <v>19.556248181571888</v>
+        <v>27.514019797383586</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="30"/>
-        <v>2.9726364328866954</v>
+        <v>3.3122468848794515</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="31"/>
-        <v>2.9732948354505515</v>
+        <v>3.3146956855770919</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -11775,7 +11774,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="35"/>
@@ -11791,7 +11790,7 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="38"/>
-        <v>106.69003496579238</v>
+        <v>298.68172185945633</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="39"/>
@@ -11803,39 +11802,39 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="23"/>
-        <v>48.070859460970738</v>
+        <v>67.518046334237198</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="24"/>
-        <v>20.139361044839408</v>
+        <v>28.286790113902818</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="25"/>
-        <v>3.2868437602897562</v>
+        <v>9.2016105732941202</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="26"/>
-        <v>4.0113119704916253E-2</v>
+        <v>4.0421396949101004E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="27"/>
-        <v>3.0037329502622362E-2</v>
+        <v>3.0139060993203331E-2</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="29"/>
-        <v>20.151824605820977</v>
+        <v>28.351946447500744</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="30"/>
-        <v>3.0026761611088646</v>
+        <v>3.3423949152458325</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="31"/>
-        <v>3.0032948354505522</v>
+        <v>3.3446956855770922</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -11849,7 +11848,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="35"/>
@@ -11865,7 +11864,7 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="38"/>
-        <v>111.05669988196124</v>
+        <v>311.00218192699572</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="39"/>
@@ -11877,39 +11876,39 @@
       </c>
       <c r="J93" s="2">
         <f t="shared" si="23"/>
-        <v>50.034536181155111</v>
+        <v>70.283283060706808</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="24"/>
-        <v>20.753470601857149</v>
+        <v>29.152304790461017</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="25"/>
-        <v>3.2872155881161564</v>
+        <v>9.2054889210210789</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="26"/>
-        <v>4.0106290272149805E-2</v>
+        <v>4.0395871341127806E-2</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="27"/>
-        <v>3.0035075789809434E-2</v>
+        <v>3.0130637542572176E-2</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="29"/>
-        <v>20.765539032504268</v>
+        <v>29.215391763234447</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="30"/>
-        <v>3.0327134906114872</v>
+        <v>3.3725339762390361</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="31"/>
-        <v>3.033294835450552</v>
+        <v>3.3746956855770924</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -11923,7 +11922,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="35"/>
@@ -11939,7 +11938,7 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="38"/>
-        <v>115.60129642366678</v>
+        <v>323.82258845890124</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="39"/>
@@ -11951,39 +11950,39 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="23"/>
-        <v>52.078310994919292</v>
+        <v>73.161155224464196</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="24"/>
-        <v>21.386258003689541</v>
+        <v>30.044049270933829</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="25"/>
-        <v>3.2875650057251504</v>
+        <v>9.2091338316762172</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="26"/>
-        <v>4.009987362781417E-2</v>
+        <v>4.037189848014526E-2</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="27"/>
-        <v>3.0032958297178676E-2</v>
+        <v>3.0122726498447935E-2</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="29"/>
-        <v>21.397943846032749</v>
+        <v>30.105132903653171</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="30"/>
-        <v>3.0627485664012961</v>
+        <v>3.4026646137816083</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="31"/>
-        <v>3.0632948354505518</v>
+        <v>3.4046956855770922</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -11997,7 +11996,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="35"/>
@@ -12013,7 +12012,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="38"/>
-        <v>120.33109213095454</v>
+        <v>337.16340623984445</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="39"/>
@@ -12025,39 +12024,39 @@
       </c>
       <c r="J95" s="2">
         <f t="shared" si="23"/>
-        <v>54.205453675264842</v>
+        <v>76.156264428150664</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="24"/>
-        <v>22.038292856837451</v>
+        <v>30.962826515668613</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="25"/>
-        <v>3.2878933631657983</v>
+        <v>9.2125593314812768</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="26"/>
-        <v>4.0093844766694017E-2</v>
+        <v>4.0349383140323616E-2</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="27"/>
-        <v>3.0030968773009026E-2</v>
+        <v>3.0115296436306793E-2</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="29"/>
-        <v>22.049608253427206</v>
+        <v>31.021970695842615</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="30"/>
-        <v>3.0927815246984749</v>
+        <v>3.4327873402800555</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="31"/>
-        <v>3.0932948354505521</v>
+        <v>3.4346956855770925</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -12071,7 +12070,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="35"/>
@@ -12087,7 +12086,7 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="38"/>
-        <v>125.25365100836365</v>
+        <v>351.04593398530477</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="39"/>
@@ -12099,39 +12098,39 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="23"/>
-        <v>56.419367416730282</v>
+        <v>79.273399952691236</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="24"/>
-        <v>22.710162089888186</v>
+        <v>31.909463802465432</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="25"/>
-        <v>3.2882019292298073</v>
+        <v>9.2157786067384269</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="26"/>
-        <v>4.0088180204763763E-2</v>
+        <v>4.0328236026240069E-2</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="27"/>
-        <v>3.002909946757204E-2</v>
+        <v>3.0108317888659222E-2</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="29"/>
-        <v>22.721118796642951</v>
+        <v>31.966730355704165</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="30"/>
-        <v>3.1228124934714847</v>
+        <v>3.4629026367163633</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="31"/>
-        <v>3.1232948354505523</v>
+        <v>3.4646956855770927</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -12145,7 +12144,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="35"/>
@@ -12161,7 +12160,7 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="38"/>
-        <v>130.37684562650807</v>
+        <v>365.49233839439563</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="39"/>
@@ -12173,39 +12172,39 @@
       </c>
       <c r="J97" s="2">
         <f t="shared" si="23"/>
-        <v>58.723594280916593</v>
+        <v>82.517546419966905</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="24"/>
-        <v>23.402470481867176</v>
+        <v>32.884813471932425</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="25"/>
-        <v>3.2884918963337229</v>
+        <v>9.2188040537902083</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="26"/>
-        <v>4.0082857885889819E-2</v>
+        <v>4.0308373392958924E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="27"/>
-        <v>3.0027343102343639E-2</v>
+        <v>3.0101763219676444E-2</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="29"/>
-        <v>23.413079880497207</v>
+        <v>32.940262230704874</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="30"/>
-        <v>3.1528415929390565</v>
+        <v>3.4930109546050225</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="31"/>
-        <v>3.1532948354505526</v>
+        <v>3.4946956855770925</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -12219,7 +12218,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="35"/>
@@ -12235,7 +12234,7 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="38"/>
-        <v>135.70886971749169</v>
+        <v>380.52568959264124</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="39"/>
@@ -12247,39 +12246,39 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="23"/>
-        <v>61.121820864235296</v>
+        <v>85.893891768066041</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="24"/>
-        <v>24.115841206652622</v>
+        <v>33.889753695347522</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="25"/>
-        <v>3.2887643851087849</v>
+        <v>9.221647326047524</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="26"/>
-        <v>4.0077857094343264E-2</v>
+        <v>4.028971669168184E-2</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="27"/>
-        <v>3.0025692841133277E-2</v>
+        <v>3.0095606508255008E-2</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="29"/>
-        <v>24.126114316674208</v>
+        <v>33.943442565247629</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="30"/>
-        <v>3.1828689360414</v>
+        <v>3.5231127178246986</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="31"/>
-        <v>3.1832948354505524</v>
+        <v>3.5246956855770928</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -12293,7 +12292,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="35"/>
@@ -12309,7 +12308,7 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="38"/>
-        <v>141.25825128431009</v>
+        <v>396.16999802136996</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="39"/>
@@ -12321,39 +12320,39 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="23"/>
-        <v>63.617884196947522</v>
+        <v>89.407835551877966</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="24"/>
-        <v>24.850916393942931</v>
+        <v>34.925189265721073</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="25"/>
-        <v>3.2890204487158439</v>
+        <v>9.224319378253055</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="26"/>
-        <v>4.0073158372750911E-2</v>
+        <v>4.027219223910565E-2</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="27"/>
-        <v>3.00241422630078E-2</v>
+        <v>3.0089823438904865E-2</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="29"/>
-        <v>24.860863884297796</v>
+        <v>34.977174289350209</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="30"/>
-        <v>3.2128946288825335</v>
+        <v>3.5532083243329535</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="31"/>
-        <v>3.2132948354505526</v>
+        <v>3.5546956855770926</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -12367,7 +12366,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="35"/>
@@ -12383,7 +12382,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="38"/>
-        <v>147.03386624521559</v>
+        <v>412.4502528327094</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="39"/>
@@ -12395,39 +12394,39 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="23"/>
-        <v>66.21577788293483</v>
+        <v>93.064997582315797</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="24"/>
-        <v>25.608357707282405</v>
+        <v>35.992052412775863</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="25"/>
-        <v>3.2892610769016919</v>
+        <v>9.2268305081383772</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="26"/>
-        <v>4.0068743445137389E-2</v>
+        <v>4.025573090877764E-2</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="27"/>
-        <v>3.0022685336895338E-2</v>
+        <v>3.0084391199896622E-2</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="29"/>
-        <v>25.617989907575904</v>
+        <v>36.042387831343305</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="30"/>
-        <v>3.2429187711455412</v>
+        <v>3.5832981477718588</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="31"/>
-        <v>3.2432948354505524</v>
+        <v>3.5846956855770928</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -12441,7 +12440,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="35"/>
@@ -12457,7 +12456,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="38"/>
-        <v>153.04495263487689</v>
+        <v>429.39246185157896</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="39"/>
@@ -12469,39 +12468,39 @@
       </c>
       <c r="J101" s="2">
         <f t="shared" ref="J101:J104" si="41">G101^B101*(H101*I101)^(1-B101)</f>
-        <v>68.91965849002645</v>
+        <v>96.871226917995259</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" ref="K101:K104" si="42">J101/I101</f>
-        <v>26.38884693966563</v>
+        <v>37.091303642581543</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="25"/>
-        <v>3.2894871998122195</v>
+        <v>9.2291903956245882</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" ref="M101:M104" si="43">C101*(1/L101)^(1-B101)-E101</f>
-        <v>4.0064595144734733E-2</v>
+        <v>4.0240267842875307E-2</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" ref="N101:N104" si="44">B101*(M101-F101-D101)+F101</f>
-        <v>3.0021316397762461E-2</v>
+        <v>3.0079288388148849E-2</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="29"/>
-        <v>26.398173851037029</v>
+        <v>37.140041955318779</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="30"/>
-        <v>3.2729414564824371</v>
+        <v>3.6133825389717558</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="31"/>
-        <v>3.2732948354505527</v>
+        <v>3.6146956855770931</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -12515,7 +12514,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="35"/>
@@ -12531,7 +12530,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="38"/>
-        <v>159.30112538505682</v>
+        <v>447.02369316858841</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="39"/>
@@ -12543,39 +12542,39 @@
       </c>
       <c r="J102" s="2">
         <f t="shared" si="41"/>
-        <v>71.733852201108547</v>
+        <v>100.83261122376069</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="42"/>
-        <v>27.193086627256694</v>
+        <v>38.223932602602474</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="25"/>
-        <v>3.2896996915768884</v>
+        <v>9.2314081397080532</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="43"/>
-        <v>4.0060697346256835E-2</v>
+        <v>4.0225742182961405E-2</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="44"/>
-        <v>3.0020030124264754E-2</v>
+        <v>3.0074494920377264E-2</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="29"/>
-        <v>27.202117932894282</v>
+        <v>38.271124624082077</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="30"/>
-        <v>3.3029627728801993</v>
+        <v>3.6434618273599044</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="31"/>
-        <v>3.3032948354505529</v>
+        <v>3.6446956855770929</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -12589,7 +12588,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="35"/>
@@ -12605,7 +12604,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="38"/>
-        <v>165.81239170845876</v>
+        <v>465.37211843036226</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="39"/>
@@ -12617,39 +12616,39 @@
       </c>
       <c r="J103" s="2">
         <f t="shared" si="41"/>
-        <v>74.662861736659195</v>
+        <v>104.95548651103566</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="42"/>
-        <v>28.021800681775971</v>
+        <v>39.390958972940453</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="25"/>
-        <v>3.2898993736781752</v>
+        <v>9.2334922931651455</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="43"/>
-        <v>4.0057034902356278E-2</v>
+        <v>4.0212096818379603E-2</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="44"/>
-        <v>3.0018821517777572E-2</v>
+        <v>3.0069991950065267E-2</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="29"/>
-        <v>28.030545757089183</v>
+        <v>39.436653888385464</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="30"/>
-        <v>3.3329828030044641</v>
+        <v>3.6735363222802824</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="31"/>
-        <v>3.3332948354505527</v>
+        <v>3.6746956855770931</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -12663,7 +12662,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="34"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="35"/>
@@ -12679,7 +12678,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="38"/>
-        <v>172.58916711035718</v>
+        <v>484.46705789652714</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="39"/>
@@ -12691,39 +12690,39 @@
       </c>
       <c r="J104" s="2">
         <f t="shared" si="41"/>
-        <v>77.71137355978594</v>
+        <v>109.24644727558623</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="42"/>
-        <v>28.875735042123658</v>
+        <v>40.593433384577146</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="25"/>
-        <v>3.2900870181188058</v>
+        <v>9.235450895202348</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="43"/>
-        <v>4.0053593584000152E-2</v>
+        <v>4.0199278151059961E-2</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="44"/>
-        <v>3.0017685882720049E-2</v>
+        <v>3.0065761789849786E-2</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="28"/>
-        <v>3.2930116186270708</v>
+        <v>9.2659886524959028</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="29"/>
-        <v>28.884202964584063</v>
+        <v>40.637678803242395</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="30"/>
-        <v>3.3630016245222416</v>
+        <v>3.7036063142303473</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="31"/>
-        <v>3.363294835450553</v>
+        <v>3.7046956855770929</v>
       </c>
     </row>
   </sheetData>
@@ -12735,7 +12734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7951EA-85F2-6E40-9B21-3826563E3D7C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
